--- a/Tables_Supplement_Text.xlsx
+++ b/Tables_Supplement_Text.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/263e6c96784ab765/Desktop/US_Childhood_Vaccination/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_714D00974829CE4AF60AC6C76C48DDB66F78AE4A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6371E10E-FA04-47F1-BE54-485CD708B93E}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="115_{C2F0D474-E221-47E8-8568-232EB7A2348E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0223CC7-9DBF-4304-ACB6-DC7408D27E76}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Table_S1" sheetId="2" r:id="rId1"/>
-    <sheet name="Table_S2" sheetId="4" r:id="rId2"/>
-    <sheet name="Table_S4" sheetId="5" r:id="rId3"/>
-    <sheet name="Table_S3" sheetId="6" r:id="rId8"/>
+    <sheet name="Table_S2" sheetId="3" r:id="rId5"/>
+    <sheet name="Table_S4" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="388">
   <si>
     <t>Vaccine</t>
   </si>
@@ -506,6 +505,198 @@
     <t>0.531 (0.500–0.562) (n = 48)</t>
   </si>
   <si>
+    <t>Measure</t>
+  </si>
+  <si>
+    <t>Trust</t>
+  </si>
+  <si>
+    <t>Proportion of states trust declined</t>
+  </si>
+  <si>
+    <t>Extent of decline in trust</t>
+  </si>
+  <si>
+    <t>Probability of initial decent</t>
+  </si>
+  <si>
+    <t>Trust</t>
+  </si>
+  <si>
+    <t>Trust_in_Science</t>
+  </si>
+  <si>
+    <t>Trust_in_Medicine</t>
+  </si>
+  <si>
+    <t>Trust_in_Science</t>
+  </si>
+  <si>
+    <t>Trust_in_Medicine</t>
+  </si>
+  <si>
+    <t>Trust_in_Science</t>
+  </si>
+  <si>
+    <t>Trust_in_Medicine</t>
+  </si>
+  <si>
+    <t>Trust_in_Science</t>
+  </si>
+  <si>
+    <t>Trust_in_Medicine</t>
+  </si>
+  <si>
+    <t>2017–18</t>
+  </si>
+  <si>
+    <t>68.7% (57.5%–74.7%) (n = 49)</t>
+  </si>
+  <si>
+    <t>62.4% (53.2%–70.0%) (n = 49)</t>
+  </si>
+  <si>
+    <t>———</t>
+  </si>
+  <si>
+    <t>0.002 (0.000–0.006)</t>
+  </si>
+  <si>
+    <t>0.007 (0.000–0.016)</t>
+  </si>
+  <si>
+    <t>2018–19</t>
+  </si>
+  <si>
+    <t>69.3% (58.0%–75.2%) (n = 49)</t>
+  </si>
+  <si>
+    <t>63.0% (54.3%–71.3%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.394 (0.265–0.531) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.403 (0.265–0.551) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.6% (-4.9%–3.7%) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.6% (-5.7%–4.2%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.026 (0.012–0.041)</t>
+  </si>
+  <si>
+    <t>0.046 (0.028–0.066)</t>
+  </si>
+  <si>
+    <t>2019–20</t>
+  </si>
+  <si>
+    <t>69.8% (58.7%–75.0%) (n = 49)</t>
+  </si>
+  <si>
+    <t>63.4% (54.3%–71.5%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.391 (0.265–0.531) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.445 (0.306–0.592) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.5% (-4.5%–3.3%) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.4% (-5.4%–4.9%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.052 (0.034–0.072)</t>
+  </si>
+  <si>
+    <t>0.058 (0.039–0.079)</t>
+  </si>
+  <si>
+    <t>2020–21</t>
+  </si>
+  <si>
+    <t>70.0% (59.9%–75.2%) (n = 49)</t>
+  </si>
+  <si>
+    <t>63.8% (55.8%–70.6%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.451 (0.306–0.592) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.418 (0.286–0.551) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.2% (-3.7%–3.1%) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.4% (-5.3%–4.1%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.172 (0.140–0.206)</t>
+  </si>
+  <si>
+    <t>0.227 (0.191–0.264)</t>
+  </si>
+  <si>
+    <t>2021–22</t>
+  </si>
+  <si>
+    <t>69.6% (59.7%–75.4%) (n = 49)</t>
+  </si>
+  <si>
+    <t>63.3% (54.8%–70.6%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.612 (0.469–0.735) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.596 (0.449–0.735) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.4% (-2.6%–3.2%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.5% (-3.7%–4.8%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.748 (0.710–0.786)</t>
+  </si>
+  <si>
+    <t>0.662 (0.620–0.702)</t>
+  </si>
+  <si>
+    <t>2022–23</t>
+  </si>
+  <si>
+    <t>63.3% (54.3%–74.1%) (n = 49)</t>
+  </si>
+  <si>
+    <t>57.5% (49.5%–64.6%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.997 (0.980–1.000) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.994 (0.959–1.000) (n = 49)</t>
+  </si>
+  <si>
+    <t>6.4% (2.0%–9.9%) (n = 49)</t>
+  </si>
+  <si>
+    <t>5.8% (1.6%–10.3%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.000 (0.000–0.000)</t>
+  </si>
+  <si>
     <t>Vaccine</t>
   </si>
   <si>
@@ -515,33 +706,12 @@
     <t>DTaP</t>
   </si>
   <si>
-    <t>Polio</t>
+    <t>IPV</t>
   </si>
   <si>
     <t>VAR</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>Proportion with projected decrease</t>
-  </si>
-  <si>
-    <t>0.735 (0.694–0.776)</t>
-  </si>
-  <si>
-    <t>0.837 (0.796–0.878)</t>
-  </si>
-  <si>
-    <t>0.714 (0.714–0.776)</t>
-  </si>
-  <si>
-    <t>0.694 (0.694–0.796)</t>
-  </si>
-  <si>
-    <t>0.633 (0.612–0.694)</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -617,30 +787,231 @@
     <t>2022–23</t>
   </si>
   <si>
-    <t>Vaccine</t>
-  </si>
-  <si>
-    <t>MMR</t>
-  </si>
-  <si>
-    <t>DTaP</t>
-  </si>
-  <si>
-    <t>IPV</t>
-  </si>
-  <si>
-    <t>VAR</t>
-  </si>
-  <si>
     <t>Mean_Error</t>
   </si>
   <si>
+    <t>4.90%</t>
+  </si>
+  <si>
+    <t>4.79%</t>
+  </si>
+  <si>
+    <t>3.40%</t>
+  </si>
+  <si>
+    <t>3.94%</t>
+  </si>
+  <si>
+    <t>3.61%</t>
+  </si>
+  <si>
+    <t>3.89%</t>
+  </si>
+  <si>
+    <t>4.78%</t>
+  </si>
+  <si>
+    <t>4.65%</t>
+  </si>
+  <si>
+    <t>3.22%</t>
+  </si>
+  <si>
+    <t>3.95%</t>
+  </si>
+  <si>
+    <t>3.58%</t>
+  </si>
+  <si>
+    <t>3.69%</t>
+  </si>
+  <si>
+    <t>4.59%</t>
+  </si>
+  <si>
+    <t>4.60%</t>
+  </si>
+  <si>
+    <t>3.26%</t>
+  </si>
+  <si>
+    <t>3.83%</t>
+  </si>
+  <si>
+    <t>3.49%</t>
+  </si>
+  <si>
+    <t>3.66%</t>
+  </si>
+  <si>
+    <t>5.17%</t>
+  </si>
+  <si>
+    <t>4.99%</t>
+  </si>
+  <si>
+    <t>3.32%</t>
+  </si>
+  <si>
+    <t>4.05%</t>
+  </si>
+  <si>
+    <t>3.57%</t>
+  </si>
+  <si>
+    <t>3.62%</t>
+  </si>
+  <si>
     <t>Median_Error</t>
   </si>
   <si>
+    <t>3.32%</t>
+  </si>
+  <si>
+    <t>2.90%</t>
+  </si>
+  <si>
+    <t>2.64%</t>
+  </si>
+  <si>
+    <t>2.83%</t>
+  </si>
+  <si>
+    <t>2.57%</t>
+  </si>
+  <si>
+    <t>2.72%</t>
+  </si>
+  <si>
+    <t>3.17%</t>
+  </si>
+  <si>
+    <t>2.89%</t>
+  </si>
+  <si>
+    <t>2.48%</t>
+  </si>
+  <si>
+    <t>2.71%</t>
+  </si>
+  <si>
+    <t>2.49%</t>
+  </si>
+  <si>
+    <t>2.57%</t>
+  </si>
+  <si>
+    <t>3.22%</t>
+  </si>
+  <si>
+    <t>2.82%</t>
+  </si>
+  <si>
+    <t>2.53%</t>
+  </si>
+  <si>
+    <t>2.68%</t>
+  </si>
+  <si>
+    <t>2.47%</t>
+  </si>
+  <si>
+    <t>2.53%</t>
+  </si>
+  <si>
+    <t>3.59%</t>
+  </si>
+  <si>
+    <t>3.13%</t>
+  </si>
+  <si>
+    <t>2.56%</t>
+  </si>
+  <si>
+    <t>2.82%</t>
+  </si>
+  <si>
+    <t>2.55%</t>
+  </si>
+  <si>
+    <t>2.53%</t>
+  </si>
+  <si>
     <t>Error_within_5</t>
   </si>
   <si>
+    <t>0.728</t>
+  </si>
+  <si>
+    <t>0.761</t>
+  </si>
+  <si>
+    <t>0.845</t>
+  </si>
+  <si>
+    <t>0.792</t>
+  </si>
+  <si>
+    <t>0.804</t>
+  </si>
+  <si>
+    <t>0.772</t>
+  </si>
+  <si>
+    <t>0.745</t>
+  </si>
+  <si>
+    <t>0.761</t>
+  </si>
+  <si>
+    <t>0.863</t>
+  </si>
+  <si>
+    <t>0.808</t>
+  </si>
+  <si>
+    <t>0.802</t>
+  </si>
+  <si>
+    <t>0.792</t>
+  </si>
+  <si>
+    <t>0.740</t>
+  </si>
+  <si>
+    <t>0.755</t>
+  </si>
+  <si>
+    <t>0.853</t>
+  </si>
+  <si>
+    <t>0.808</t>
+  </si>
+  <si>
+    <t>0.802</t>
+  </si>
+  <si>
+    <t>0.776</t>
+  </si>
+  <si>
+    <t>0.700</t>
+  </si>
+  <si>
+    <t>0.747</t>
+  </si>
+  <si>
+    <t>0.860</t>
+  </si>
+  <si>
+    <t>0.801</t>
+  </si>
+  <si>
+    <t>0.810</t>
+  </si>
+  <si>
+    <t>0.808</t>
+  </si>
+  <si>
     <t>Measure</t>
   </si>
   <si>
@@ -686,343 +1057,145 @@
     <t>2017–18</t>
   </si>
   <si>
-    <t>68.7% (57.7%–75.2%) (n = 49)</t>
-  </si>
-  <si>
-    <t>62.4% (53.0%–70.2%) (n = 49)</t>
+    <t>68.7% (57.5%–74.7%) (n = 49)</t>
+  </si>
+  <si>
+    <t>62.2% (53.6%–70.8%) (n = 49)</t>
   </si>
   <si>
     <t>———</t>
   </si>
   <si>
-    <t>0.001 (0.000–0.004)</t>
-  </si>
-  <si>
-    <t>0.006 (0.000–0.014)</t>
+    <t>0.002 (0.000–0.006)</t>
+  </si>
+  <si>
+    <t>0.008 (0.002–0.016)</t>
   </si>
   <si>
     <t>2018–19</t>
   </si>
   <si>
-    <t>69.2% (57.5%–75.6%) (n = 49)</t>
-  </si>
-  <si>
-    <t>62.8% (54.6%–72.0%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.419 (0.286–0.551) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.422 (0.286–0.571) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.5% (-4.6%–3.8%) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.4% (-5.5%–4.1%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.026 (0.013–0.041)</t>
-  </si>
-  <si>
-    <t>0.050 (0.032–0.070)</t>
+    <t>69.2% (57.2%–75.6%) (n = 49)</t>
+  </si>
+  <si>
+    <t>62.9% (52.1%–71.4%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.417 (0.286–0.551) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.397 (0.265–0.531) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.5% (-4.6%–3.9%) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.6% (-5.7%–4.2%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.029 (0.015–0.044)</t>
+  </si>
+  <si>
+    <t>0.057 (0.038–0.079)</t>
   </si>
   <si>
     <t>2019–20</t>
   </si>
   <si>
-    <t>69.7% (58.8%–75.0%) (n = 49)</t>
-  </si>
-  <si>
-    <t>63.5% (54.4%–71.2%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.390 (0.265–0.531) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.403 (0.265–0.551) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.6% (-4.7%–3.4%) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.6% (-5.6%–4.3%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.048 (0.030–0.067)</t>
-  </si>
-  <si>
-    <t>0.089 (0.066–0.115)</t>
+    <t>69.7% (59.0%–76.3%) (n = 49)</t>
+  </si>
+  <si>
+    <t>63.4% (53.6%–71.1%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.387 (0.245–0.531) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.416 (0.286–0.551) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.5% (-4.8%–3.4%) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.6% (-5.6%–4.6%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.036 (0.020–0.053)</t>
+  </si>
+  <si>
+    <t>0.080 (0.057–0.105)</t>
   </si>
   <si>
     <t>2020–21</t>
   </si>
   <si>
-    <t>70.0% (60.3%–75.5%) (n = 49)</t>
-  </si>
-  <si>
-    <t>63.7% (54.4%–70.6%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.425 (0.286–0.571) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.456 (0.327–0.592) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.3% (-3.7%–3.0%) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.3% (-5.1%–4.6%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.178 (0.146–0.213)</t>
-  </si>
-  <si>
-    <t>0.206 (0.172–0.241)</t>
+    <t>70.1% (58.7%–75.1%) (n = 49)</t>
+  </si>
+  <si>
+    <t>63.8% (55.0%–71.2%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.426 (0.286–0.571) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.3% (-3.7%–2.9%) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.5% (-5.0%–4.3%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.196 (0.161–0.230)</t>
+  </si>
+  <si>
+    <t>0.209 (0.173–0.245)</t>
   </si>
   <si>
     <t>2021–22</t>
   </si>
   <si>
-    <t>69.6% (61.1%–75.9%) (n = 49)</t>
-  </si>
-  <si>
-    <t>63.4% (54.3%–70.7%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.616 (0.469–0.755) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.559 (0.429–0.694) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.5% (-2.6%–3.2%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.3% (-4.0%–5.0%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.747 (0.709–0.785)</t>
-  </si>
-  <si>
-    <t>0.648 (0.607–0.689)</t>
+    <t>69.6% (60.2%–75.7%) (n = 49)</t>
+  </si>
+  <si>
+    <t>63.4% (54.6%–70.2%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.623 (0.490–0.755) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.576 (0.429–0.714) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.5% (-2.7%–3.4%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.4% (-3.7%–4.8%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.738 (0.700–0.776)</t>
+  </si>
+  <si>
+    <t>0.646 (0.603–0.687)</t>
   </si>
   <si>
     <t>2022–23</t>
   </si>
   <si>
-    <t>63.3% (53.5%–74.3%) (n = 49)</t>
-  </si>
-  <si>
-    <t>57.6% (49.2%–64.4%) (n = 49)</t>
+    <t>63.3% (55.3%–76.6%) (n = 49)</t>
+  </si>
+  <si>
+    <t>57.6% (49.9%–63.8%) (n = 49)</t>
   </si>
   <si>
     <t>0.997 (0.980–1.000) (n = 49)</t>
   </si>
   <si>
-    <t>0.993 (0.959–1.000) (n = 49)</t>
-  </si>
-  <si>
-    <t>6.4% (1.9%–10.0%) (n = 49)</t>
-  </si>
-  <si>
-    <t>5.8% (1.4%–10.5%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.000 (0.000–0.000)</t>
-  </si>
-  <si>
-    <t>Measure</t>
-  </si>
-  <si>
-    <t>Trust</t>
-  </si>
-  <si>
-    <t>Proportion of states trust declined</t>
-  </si>
-  <si>
-    <t>Extent of decline in trust</t>
-  </si>
-  <si>
-    <t>Probability of initial decent</t>
-  </si>
-  <si>
-    <t>Trust</t>
-  </si>
-  <si>
-    <t>Trust_in_Science</t>
-  </si>
-  <si>
-    <t>Trust_in_Medicine</t>
-  </si>
-  <si>
-    <t>Trust_in_Science</t>
-  </si>
-  <si>
-    <t>Trust_in_Medicine</t>
-  </si>
-  <si>
-    <t>Trust_in_Science</t>
-  </si>
-  <si>
-    <t>Trust_in_Medicine</t>
-  </si>
-  <si>
-    <t>Trust_in_Science</t>
-  </si>
-  <si>
-    <t>Trust_in_Medicine</t>
-  </si>
-  <si>
-    <t>2017–18</t>
-  </si>
-  <si>
-    <t>68.7% (58.2%–75.5%) (n = 49)</t>
-  </si>
-  <si>
-    <t>62.4% (53.4%–70.1%) (n = 49)</t>
-  </si>
-  <si>
-    <t>———</t>
-  </si>
-  <si>
-    <t>0.004 (0.000–0.010)</t>
-  </si>
-  <si>
-    <t>0.008 (0.002–0.016)</t>
-  </si>
-  <si>
-    <t>2018–19</t>
-  </si>
-  <si>
-    <t>69.1% (56.0%–74.3%) (n = 49)</t>
-  </si>
-  <si>
-    <t>62.8% (53.7%–71.0%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.421 (0.286–0.551) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.419 (0.286–0.551) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.4% (-4.8%–4.0%) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.5% (-5.2%–4.1%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.030 (0.016–0.046)</t>
-  </si>
-  <si>
-    <t>0.050 (0.032–0.069)</t>
-  </si>
-  <si>
-    <t>2019–20</t>
-  </si>
-  <si>
-    <t>69.7% (59.3%–75.3%) (n = 49)</t>
-  </si>
-  <si>
-    <t>63.4% (53.8%–72.1%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.395 (0.265–0.531) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.406 (0.265–0.551) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.5% (-4.8%–3.5%) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.6% (-5.5%–4.3%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.046 (0.029–0.065)</t>
-  </si>
-  <si>
-    <t>0.080 (0.058–0.104)</t>
-  </si>
-  <si>
-    <t>2020–21</t>
-  </si>
-  <si>
-    <t>70.1% (59.7%–76.1%) (n = 49)</t>
-  </si>
-  <si>
-    <t>63.9% (54.9%–70.6%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.406 (0.265–0.551) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.424 (0.286–0.571) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.4% (-3.8%–2.9%) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.4% (-5.3%–4.3%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.178 (0.146–0.212)</t>
-  </si>
-  <si>
-    <t>0.217 (0.181–0.254)</t>
-  </si>
-  <si>
-    <t>2021–22</t>
-  </si>
-  <si>
-    <t>69.6% (60.0%–76.1%) (n = 49)</t>
-  </si>
-  <si>
-    <t>63.3% (54.9%–69.8%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.628 (0.490–0.755) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.591 (0.449–0.735) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.4% (-2.5%–3.5%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.5% (-3.4%–4.6%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.740 (0.702–0.778)</t>
-  </si>
-  <si>
-    <t>0.645 (0.604–0.686)</t>
-  </si>
-  <si>
-    <t>2022–23</t>
-  </si>
-  <si>
-    <t>63.3% (55.3%–75.2%) (n = 49)</t>
-  </si>
-  <si>
-    <t>57.5% (48.9%–64.0%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.996 (0.980–1.000) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.994 (0.959–1.000) (n = 49)</t>
-  </si>
-  <si>
-    <t>6.4% (1.8%–10.0%) (n = 49)</t>
-  </si>
-  <si>
-    <t>5.8% (1.5%–10.3%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.001 (0.000–0.004)</t>
+    <t>0.995 (0.959–1.000) (n = 49)</t>
+  </si>
+  <si>
+    <t>6.4% (2.0%–10.0%) (n = 49)</t>
+  </si>
+  <si>
+    <t>5.9% (1.6%–10.1%) (n = 49)</t>
   </si>
   <si>
     <t>0.000 (0.000–0.000)</t>
@@ -1077,10 +1250,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1399,10 +1568,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD211A94-42F7-4283-ABD4-302E758CBFC4}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection sqref="A1:H25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1994,522 +2165,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8" customWidth="true"/>
-    <col min="2" max="2" width="32.5703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.140625" customWidth="true"/>
-    <col min="2" max="2" width="8" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="13.140625" customWidth="true"/>
-    <col min="5" max="5" width="16.5703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C2">
-        <v>4.8960341254033066</v>
-      </c>
-      <c r="D2">
-        <v>3.3197380483754202</v>
-      </c>
-      <c r="E2">
-        <v>0.72778561354019744</v>
-      </c>
-    </row>
-    <row r="3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3">
-        <v>4.788369784356834</v>
-      </c>
-      <c r="D3">
-        <v>2.8964812863019551</v>
-      </c>
-      <c r="E3">
-        <v>0.76083916083916081</v>
-      </c>
-    </row>
-    <row r="4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C4">
-        <v>3.396733966402699</v>
-      </c>
-      <c r="D4">
-        <v>2.6365782075697899</v>
-      </c>
-      <c r="E4">
-        <v>0.84545454545454546</v>
-      </c>
-    </row>
-    <row r="5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5">
-        <v>3.9400107483488784</v>
-      </c>
-      <c r="D5">
-        <v>2.8248220794229728</v>
-      </c>
-      <c r="E5">
-        <v>0.79099678456591638</v>
-      </c>
-    </row>
-    <row r="6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C6">
-        <v>3.6104392971475741</v>
-      </c>
-      <c r="D6">
-        <v>2.5737450973528029</v>
-      </c>
-      <c r="E6">
-        <v>0.80376940133037689</v>
-      </c>
-    </row>
-    <row r="7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C7">
-        <v>3.8956905551525098</v>
-      </c>
-      <c r="D7">
-        <v>2.7208826631218486</v>
-      </c>
-      <c r="E7">
-        <v>0.77208706786171577</v>
-      </c>
-    </row>
-    <row r="8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C8">
-        <v>4.7827780255588044</v>
-      </c>
-      <c r="D8">
-        <v>3.1694025376721835</v>
-      </c>
-      <c r="E8">
-        <v>0.74471086036671363</v>
-      </c>
-    </row>
-    <row r="9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>176</v>
-      </c>
-      <c r="B9" t="s">
-        <v>195</v>
-      </c>
-      <c r="C9">
-        <v>4.6482137235790537</v>
-      </c>
-      <c r="D9">
-        <v>2.8896253410580828</v>
-      </c>
-      <c r="E9">
-        <v>0.76050420168067223</v>
-      </c>
-    </row>
-    <row r="10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C10">
-        <v>3.2242349157492156</v>
-      </c>
-      <c r="D10">
-        <v>2.4822436658204827</v>
-      </c>
-      <c r="E10">
-        <v>0.86322188449848025</v>
-      </c>
-    </row>
-    <row r="11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>178</v>
-      </c>
-      <c r="B11" t="s">
-        <v>195</v>
-      </c>
-      <c r="C11">
-        <v>3.9487416680970857</v>
-      </c>
-      <c r="D11">
-        <v>2.7189174269278582</v>
-      </c>
-      <c r="E11">
-        <v>0.80814576634512325</v>
-      </c>
-    </row>
-    <row r="12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>179</v>
-      </c>
-      <c r="B12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C12">
-        <v>3.5802714309552384</v>
-      </c>
-      <c r="D12">
-        <v>2.4888573791374768</v>
-      </c>
-      <c r="E12">
-        <v>0.8017718715393134</v>
-      </c>
-    </row>
-    <row r="13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>180</v>
-      </c>
-      <c r="B13" t="s">
-        <v>195</v>
-      </c>
-      <c r="C13">
-        <v>3.6924483416010365</v>
-      </c>
-      <c r="D13">
-        <v>2.5743101409927025</v>
-      </c>
-      <c r="E13">
-        <v>0.79230769230769227</v>
-      </c>
-    </row>
-    <row r="14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>181</v>
-      </c>
-      <c r="B14" t="s">
-        <v>196</v>
-      </c>
-      <c r="C14">
-        <v>4.5935052519981276</v>
-      </c>
-      <c r="D14">
-        <v>3.2211831017598058</v>
-      </c>
-      <c r="E14">
-        <v>0.74027993779160184</v>
-      </c>
-    </row>
-    <row r="15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>182</v>
-      </c>
-      <c r="B15" t="s">
-        <v>196</v>
-      </c>
-      <c r="C15">
-        <v>4.597634796836072</v>
-      </c>
-      <c r="D15">
-        <v>2.8208507821872009</v>
-      </c>
-      <c r="E15">
-        <v>0.75524475524475521</v>
-      </c>
-    </row>
-    <row r="16" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>183</v>
-      </c>
-      <c r="B16" t="s">
-        <v>196</v>
-      </c>
-      <c r="C16">
-        <v>3.2567471289019538</v>
-      </c>
-      <c r="D16">
-        <v>2.5272623332764033</v>
-      </c>
-      <c r="E16">
-        <v>0.85338725985844288</v>
-      </c>
-    </row>
-    <row r="17" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>184</v>
-      </c>
-      <c r="B17" t="s">
-        <v>196</v>
-      </c>
-      <c r="C17">
-        <v>3.8257388416386866</v>
-      </c>
-      <c r="D17">
-        <v>2.6815888861333792</v>
-      </c>
-      <c r="E17">
-        <v>0.80707395498392287</v>
-      </c>
-    </row>
-    <row r="18" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>185</v>
-      </c>
-      <c r="B18" t="s">
-        <v>196</v>
-      </c>
-      <c r="C18">
-        <v>3.4863986555107491</v>
-      </c>
-      <c r="D18">
-        <v>2.4664838796096933</v>
-      </c>
-      <c r="E18">
-        <v>0.80155210643015518</v>
-      </c>
-    </row>
-    <row r="19" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>186</v>
-      </c>
-      <c r="B19" t="s">
-        <v>196</v>
-      </c>
-      <c r="C19">
-        <v>3.6610927635242234</v>
-      </c>
-      <c r="D19">
-        <v>2.5177287949892158</v>
-      </c>
-      <c r="E19">
-        <v>0.77621483375959077</v>
-      </c>
-    </row>
-    <row r="20" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>187</v>
-      </c>
-      <c r="B20" t="s">
-        <v>197</v>
-      </c>
-      <c r="C20">
-        <v>5.1738180655021946</v>
-      </c>
-      <c r="D20">
-        <v>3.5870139245485433</v>
-      </c>
-      <c r="E20">
-        <v>0.69957686882933712</v>
-      </c>
-    </row>
-    <row r="21" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>188</v>
-      </c>
-      <c r="B21" t="s">
-        <v>197</v>
-      </c>
-      <c r="C21">
-        <v>4.9891715460340098</v>
-      </c>
-      <c r="D21">
-        <v>3.1249040117680149</v>
-      </c>
-      <c r="E21">
-        <v>0.74685314685314685</v>
-      </c>
-    </row>
-    <row r="22" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>189</v>
-      </c>
-      <c r="B22" t="s">
-        <v>197</v>
-      </c>
-      <c r="C22">
-        <v>3.3193083839073929</v>
-      </c>
-      <c r="D22">
-        <v>2.5594560020255566</v>
-      </c>
-      <c r="E22">
-        <v>0.8606060606060606</v>
-      </c>
-    </row>
-    <row r="23" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>190</v>
-      </c>
-      <c r="B23" t="s">
-        <v>197</v>
-      </c>
-      <c r="C23">
-        <v>4.0479205893989008</v>
-      </c>
-      <c r="D23">
-        <v>2.8175544267548536</v>
-      </c>
-      <c r="E23">
-        <v>0.80171489817792063</v>
-      </c>
-    </row>
-    <row r="24" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>191</v>
-      </c>
-      <c r="B24" t="s">
-        <v>197</v>
-      </c>
-      <c r="C24">
-        <v>3.572754879449175</v>
-      </c>
-      <c r="D24">
-        <v>2.5547236246760807</v>
-      </c>
-      <c r="E24">
-        <v>0.81152993348115299</v>
-      </c>
-    </row>
-    <row r="25" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>192</v>
-      </c>
-      <c r="B25" t="s">
-        <v>197</v>
-      </c>
-      <c r="C25">
-        <v>3.6167508271871469</v>
-      </c>
-      <c r="D25">
-        <v>2.5329693734854497</v>
-      </c>
-      <c r="E25">
-        <v>0.80793854033290657</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H9"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2526,236 +2186,677 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>265</v>
+        <v>325</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>279</v>
+        <v>339</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>285</v>
+        <v>345</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>294</v>
+        <v>354</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>303</v>
+        <v>363</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>312</v>
+        <v>371</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>321</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>266</v>
+        <v>326</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>271</v>
+        <v>331</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>286</v>
+        <v>346</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>295</v>
+        <v>355</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>304</v>
+        <v>364</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>313</v>
+        <v>372</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>322</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>266</v>
+        <v>326</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>272</v>
+        <v>332</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>281</v>
+        <v>341</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>287</v>
+        <v>347</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>296</v>
+        <v>356</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>305</v>
+        <v>365</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>314</v>
+        <v>373</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>323</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>267</v>
+        <v>327</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>273</v>
+        <v>333</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>282</v>
+        <v>342</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>288</v>
+        <v>348</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>297</v>
+        <v>357</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>306</v>
+        <v>366</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>315</v>
+        <v>374</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>324</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>267</v>
+        <v>327</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>274</v>
+        <v>334</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>282</v>
+        <v>342</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>289</v>
+        <v>349</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>316</v>
+        <v>375</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>325</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>268</v>
+        <v>328</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>275</v>
+        <v>335</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>282</v>
+        <v>342</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>299</v>
+        <v>359</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>308</v>
+        <v>367</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>317</v>
+        <v>376</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>326</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>268</v>
+        <v>328</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>276</v>
+        <v>336</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>282</v>
+        <v>342</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>309</v>
+        <v>368</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>318</v>
+        <v>377</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>327</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>269</v>
+        <v>329</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>277</v>
+        <v>337</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>283</v>
+        <v>343</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>292</v>
+        <v>352</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>301</v>
+        <v>361</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>310</v>
+        <v>369</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>319</v>
+        <v>378</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>328</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>387</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="true"/>
+    <col min="2" max="2" width="8.140625" customWidth="true"/>
+    <col min="3" max="3" width="11.42578125" customWidth="true"/>
+    <col min="4" max="4" width="13.140625" customWidth="true"/>
+    <col min="5" max="5" width="14.140625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="G9" s="0" t="s">
+      <c r="D20" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="H9" s="0" t="s">
-        <v>329</v>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>

--- a/Tables_Supplement_Text.xlsx
+++ b/Tables_Supplement_Text.xlsx
@@ -16,6 +16,7 @@
     <sheet name="Table_S1" sheetId="2" r:id="rId1"/>
     <sheet name="Table_S2" sheetId="3" r:id="rId5"/>
     <sheet name="Table_S4" sheetId="4" r:id="rId6"/>
+    <sheet name="Table_S3" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="448">
   <si>
     <t>Vaccine</t>
   </si>
@@ -1199,6 +1200,186 @@
   </si>
   <si>
     <t>0.000 (0.000–0.000)</t>
+  </si>
+  <si>
+    <t>Vaccine</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>DTaP</t>
+  </si>
+  <si>
+    <t>IPV</t>
+  </si>
+  <si>
+    <t>VAR</t>
+  </si>
+  <si>
+    <t>ReligousExemptions</t>
+  </si>
+  <si>
+    <t>-0.961(-0.965–-0.953)</t>
+  </si>
+  <si>
+    <t>-0.820(-0.833–-0.818)</t>
+  </si>
+  <si>
+    <t>-0.778(-0.806–-0.760)</t>
+  </si>
+  <si>
+    <t>-0.925(-0.950–-0.894)</t>
+  </si>
+  <si>
+    <t>PhilosophicalExemptions</t>
+  </si>
+  <si>
+    <t>-0.228(-0.233–-0.220)</t>
+  </si>
+  <si>
+    <t>-0.161(-0.162–-0.159)</t>
+  </si>
+  <si>
+    <t>-0.150(-0.165–-0.138)</t>
+  </si>
+  <si>
+    <t>-0.094(-0.107–-0.083)</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>3.774(3.628–4.063)</t>
+  </si>
+  <si>
+    <t>2.653(2.277–3.062)</t>
+  </si>
+  <si>
+    <t>3.139(2.843–3.539)</t>
+  </si>
+  <si>
+    <t>3.569(2.706–4.898)</t>
+  </si>
+  <si>
+    <t>Economic</t>
+  </si>
+  <si>
+    <t>-0.001(-0.041–0.009)</t>
+  </si>
+  <si>
+    <t>0.015(0.000–0.045)</t>
+  </si>
+  <si>
+    <t>-0.008(-0.205–0.041)</t>
+  </si>
+  <si>
+    <t>-0.010(-0.145–0.071)</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>-0.574(-0.649–-0.532)</t>
+  </si>
+  <si>
+    <t>-0.437(-0.576–-0.403)</t>
+  </si>
+  <si>
+    <t>-0.777(-0.872–-0.567)</t>
+  </si>
+  <si>
+    <t>-0.716(-0.803–-0.624)</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>-0.009(-0.035–0.000)</t>
+  </si>
+  <si>
+    <t>0.015(0.000–0.046)</t>
+  </si>
+  <si>
+    <t>-0.002(-0.039–0.000)</t>
+  </si>
+  <si>
+    <t>-0.003(-0.112–0.088)</t>
+  </si>
+  <si>
+    <t>Politcal</t>
+  </si>
+  <si>
+    <t>0.019(0.000–0.078)</t>
+  </si>
+  <si>
+    <t>-0.184(-0.199–0.000)</t>
+  </si>
+  <si>
+    <t>-0.028(-0.087–0.088)</t>
+  </si>
+  <si>
+    <t>0.007(-0.031–0.083)</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>-0.085(-0.091–-0.073)</t>
+  </si>
+  <si>
+    <t>-0.127(-0.135–0.000)</t>
+  </si>
+  <si>
+    <t>-0.119(-0.180–0.000)</t>
+  </si>
+  <si>
+    <t>-0.077(-0.145–0.000)</t>
+  </si>
+  <si>
+    <t>TrustInMedicine</t>
+  </si>
+  <si>
+    <t>0.006(0.000–0.000)</t>
+  </si>
+  <si>
+    <t>0.719(0.701–0.821)</t>
+  </si>
+  <si>
+    <t>0.206(0.000–0.669)</t>
+  </si>
+  <si>
+    <t>0.462(0.000–0.778)</t>
+  </si>
+  <si>
+    <t>TrustInScience</t>
+  </si>
+  <si>
+    <t>0.527(0.519–0.560)</t>
+  </si>
+  <si>
+    <t>0.000(0.000–0.000)</t>
+  </si>
+  <si>
+    <t>0.117(0.000–0.290)</t>
+  </si>
+  <si>
+    <t>0.199(0.000–0.516)</t>
+  </si>
+  <si>
+    <t>UninsuredUnder19</t>
+  </si>
+  <si>
+    <t>-0.000(0.000–0.000)</t>
+  </si>
+  <si>
+    <t>-0.267(-0.275–-0.159)</t>
+  </si>
+  <si>
+    <t>-0.252(-0.297–-0.163)</t>
+  </si>
+  <si>
+    <t>-0.048(-0.162–0.000)</t>
   </si>
 </sst>
 </file>
@@ -2861,4 +3042,217 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="true"/>
+    <col min="2" max="2" width="19.42578125" customWidth="true"/>
+    <col min="3" max="3" width="23.42578125" customWidth="true"/>
+    <col min="4" max="4" width="17.28515625" customWidth="true"/>
+    <col min="5" max="5" width="18.7109375" customWidth="true"/>
+    <col min="6" max="6" width="19.42578125" customWidth="true"/>
+    <col min="7" max="7" width="18.7109375" customWidth="true"/>
+    <col min="8" max="8" width="18.7109375" customWidth="true"/>
+    <col min="9" max="9" width="19.42578125" customWidth="true"/>
+    <col min="10" max="10" width="17.28515625" customWidth="true"/>
+    <col min="11" max="11" width="17.28515625" customWidth="true"/>
+    <col min="12" max="12" width="19.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>447</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>
--- a/Tables_Supplement_Text.xlsx
+++ b/Tables_Supplement_Text.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/263e6c96784ab765/Desktop/US_Childhood_Vaccination/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="115_{C2F0D474-E221-47E8-8568-232EB7A2348E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0223CC7-9DBF-4304-ACB6-DC7408D27E76}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="115_{C2F0D474-E221-47E8-8568-232EB7A2348E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7A056F3-154A-4665-93DF-868B49938BDD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_S1" sheetId="2" r:id="rId1"/>
-    <sheet name="Table_S2" sheetId="3" r:id="rId5"/>
-    <sheet name="Table_S4" sheetId="4" r:id="rId6"/>
-    <sheet name="Table_S3" sheetId="5" r:id="rId7"/>
+    <sheet name="Table_S2" sheetId="3" r:id="rId2"/>
+    <sheet name="Table_S3" sheetId="5" r:id="rId3"/>
+    <sheet name="Table_S4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="384">
   <si>
     <t>Vaccine</t>
   </si>
@@ -554,7 +554,7 @@
     <t>68.7% (57.5%–74.7%) (n = 49)</t>
   </si>
   <si>
-    <t>62.4% (53.2%–70.0%) (n = 49)</t>
+    <t>62.2% (53.6%–70.8%) (n = 49)</t>
   </si>
   <si>
     <t>———</t>
@@ -563,136 +563,133 @@
     <t>0.002 (0.000–0.006)</t>
   </si>
   <si>
-    <t>0.007 (0.000–0.016)</t>
+    <t>0.008 (0.002–0.016)</t>
   </si>
   <si>
     <t>2018–19</t>
   </si>
   <si>
-    <t>69.3% (58.0%–75.2%) (n = 49)</t>
-  </si>
-  <si>
-    <t>63.0% (54.3%–71.3%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.394 (0.265–0.531) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.403 (0.265–0.551) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.6% (-4.9%–3.7%) (n = 49)</t>
+    <t>69.2% (57.2%–75.6%) (n = 49)</t>
+  </si>
+  <si>
+    <t>62.9% (52.1%–71.4%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.417 (0.286–0.551) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.397 (0.265–0.531) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.5% (-4.6%–3.9%) (n = 49)</t>
   </si>
   <si>
     <t>-0.6% (-5.7%–4.2%) (n = 49)</t>
   </si>
   <si>
-    <t>0.026 (0.012–0.041)</t>
-  </si>
-  <si>
-    <t>0.046 (0.028–0.066)</t>
+    <t>0.029 (0.015–0.044)</t>
+  </si>
+  <si>
+    <t>0.057 (0.038–0.079)</t>
   </si>
   <si>
     <t>2019–20</t>
   </si>
   <si>
-    <t>69.8% (58.7%–75.0%) (n = 49)</t>
-  </si>
-  <si>
-    <t>63.4% (54.3%–71.5%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.391 (0.265–0.531) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.445 (0.306–0.592) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.5% (-4.5%–3.3%) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.4% (-5.4%–4.9%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.052 (0.034–0.072)</t>
-  </si>
-  <si>
-    <t>0.058 (0.039–0.079)</t>
+    <t>69.7% (59.0%–76.3%) (n = 49)</t>
+  </si>
+  <si>
+    <t>63.4% (53.6%–71.1%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.387 (0.245–0.531) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.416 (0.286–0.551) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.5% (-4.8%–3.4%) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.6% (-5.6%–4.6%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.036 (0.020–0.053)</t>
+  </si>
+  <si>
+    <t>0.080 (0.057–0.105)</t>
   </si>
   <si>
     <t>2020–21</t>
   </si>
   <si>
-    <t>70.0% (59.9%–75.2%) (n = 49)</t>
-  </si>
-  <si>
-    <t>63.8% (55.8%–70.6%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.451 (0.306–0.592) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.418 (0.286–0.551) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.2% (-3.7%–3.1%) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.4% (-5.3%–4.1%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.172 (0.140–0.206)</t>
-  </si>
-  <si>
-    <t>0.227 (0.191–0.264)</t>
+    <t>70.1% (58.7%–75.1%) (n = 49)</t>
+  </si>
+  <si>
+    <t>63.8% (55.0%–71.2%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.426 (0.286–0.571) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.3% (-3.7%–2.9%) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.5% (-5.0%–4.3%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.196 (0.161–0.230)</t>
+  </si>
+  <si>
+    <t>0.209 (0.173–0.245)</t>
   </si>
   <si>
     <t>2021–22</t>
   </si>
   <si>
-    <t>69.6% (59.7%–75.4%) (n = 49)</t>
-  </si>
-  <si>
-    <t>63.3% (54.8%–70.6%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.612 (0.469–0.735) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.596 (0.449–0.735) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.4% (-2.6%–3.2%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.5% (-3.7%–4.8%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.748 (0.710–0.786)</t>
-  </si>
-  <si>
-    <t>0.662 (0.620–0.702)</t>
+    <t>69.6% (60.2%–75.7%) (n = 49)</t>
+  </si>
+  <si>
+    <t>63.4% (54.6%–70.2%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.623 (0.490–0.755) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.576 (0.429–0.714) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.5% (-2.7%–3.4%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.4% (-3.7%–4.8%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.738 (0.700–0.776)</t>
+  </si>
+  <si>
+    <t>0.646 (0.603–0.687)</t>
   </si>
   <si>
     <t>2022–23</t>
   </si>
   <si>
-    <t>63.3% (54.3%–74.1%) (n = 49)</t>
-  </si>
-  <si>
-    <t>57.5% (49.5%–64.6%) (n = 49)</t>
+    <t>63.3% (55.3%–76.6%) (n = 49)</t>
+  </si>
+  <si>
+    <t>57.6% (49.9%–63.8%) (n = 49)</t>
   </si>
   <si>
     <t>0.997 (0.980–1.000) (n = 49)</t>
   </si>
   <si>
-    <t>0.994 (0.959–1.000) (n = 49)</t>
-  </si>
-  <si>
-    <t>6.4% (2.0%–9.9%) (n = 49)</t>
-  </si>
-  <si>
-    <t>5.8% (1.6%–10.3%) (n = 49)</t>
+    <t>0.995 (0.959–1.000) (n = 49)</t>
+  </si>
+  <si>
+    <t>6.4% (2.0%–10.0%) (n = 49)</t>
+  </si>
+  <si>
+    <t>5.9% (1.6%–10.1%) (n = 49)</t>
   </si>
   <si>
     <t>0.000 (0.000–0.000)</t>
@@ -713,6 +710,186 @@
     <t>VAR</t>
   </si>
   <si>
+    <t>ReligousExemptions</t>
+  </si>
+  <si>
+    <t>-0.961(-0.965–-0.953)</t>
+  </si>
+  <si>
+    <t>-0.820(-0.833–-0.818)</t>
+  </si>
+  <si>
+    <t>-0.778(-0.806–-0.760)</t>
+  </si>
+  <si>
+    <t>-0.925(-0.950–-0.894)</t>
+  </si>
+  <si>
+    <t>PhilosophicalExemptions</t>
+  </si>
+  <si>
+    <t>-0.228(-0.233–-0.220)</t>
+  </si>
+  <si>
+    <t>-0.161(-0.162–-0.159)</t>
+  </si>
+  <si>
+    <t>-0.150(-0.165–-0.138)</t>
+  </si>
+  <si>
+    <t>-0.094(-0.107–-0.083)</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>3.774(3.628–4.063)</t>
+  </si>
+  <si>
+    <t>2.653(2.277–3.062)</t>
+  </si>
+  <si>
+    <t>3.139(2.843–3.539)</t>
+  </si>
+  <si>
+    <t>3.569(2.706–4.898)</t>
+  </si>
+  <si>
+    <t>Economic</t>
+  </si>
+  <si>
+    <t>-0.001(-0.041–0.009)</t>
+  </si>
+  <si>
+    <t>0.015(0.000–0.045)</t>
+  </si>
+  <si>
+    <t>-0.008(-0.205–0.041)</t>
+  </si>
+  <si>
+    <t>-0.010(-0.145–0.071)</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>-0.574(-0.649–-0.532)</t>
+  </si>
+  <si>
+    <t>-0.437(-0.592–-0.403)</t>
+  </si>
+  <si>
+    <t>-0.777(-0.872–-0.567)</t>
+  </si>
+  <si>
+    <t>-0.716(-0.803–-0.624)</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>-0.009(-0.035–0.000)</t>
+  </si>
+  <si>
+    <t>0.015(0.000–0.046)</t>
+  </si>
+  <si>
+    <t>-0.002(-0.039–0.000)</t>
+  </si>
+  <si>
+    <t>-0.003(-0.112–0.088)</t>
+  </si>
+  <si>
+    <t>Politcal</t>
+  </si>
+  <si>
+    <t>0.019(0.000–0.078)</t>
+  </si>
+  <si>
+    <t>-0.184(-0.199–0.000)</t>
+  </si>
+  <si>
+    <t>-0.028(-0.087–0.088)</t>
+  </si>
+  <si>
+    <t>0.007(-0.031–0.083)</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>-0.085(-0.091–-0.073)</t>
+  </si>
+  <si>
+    <t>-0.127(-0.135–0.000)</t>
+  </si>
+  <si>
+    <t>-0.119(-0.180–0.000)</t>
+  </si>
+  <si>
+    <t>-0.077(-0.145–0.000)</t>
+  </si>
+  <si>
+    <t>TrustInMedicine</t>
+  </si>
+  <si>
+    <t>0.006(0.000–0.000)</t>
+  </si>
+  <si>
+    <t>0.719(0.701–0.821)</t>
+  </si>
+  <si>
+    <t>0.206(0.000–0.669)</t>
+  </si>
+  <si>
+    <t>0.462(0.000–0.778)</t>
+  </si>
+  <si>
+    <t>TrustInScience</t>
+  </si>
+  <si>
+    <t>0.527(0.519–0.560)</t>
+  </si>
+  <si>
+    <t>0.000(0.000–0.000)</t>
+  </si>
+  <si>
+    <t>0.117(0.000–0.290)</t>
+  </si>
+  <si>
+    <t>0.199(0.000–0.516)</t>
+  </si>
+  <si>
+    <t>UninsuredUnder19</t>
+  </si>
+  <si>
+    <t>-0.000(0.000–0.000)</t>
+  </si>
+  <si>
+    <t>-0.267(-0.275–-0.159)</t>
+  </si>
+  <si>
+    <t>-0.252(-0.297–-0.163)</t>
+  </si>
+  <si>
+    <t>-0.048(-0.162–0.000)</t>
+  </si>
+  <si>
+    <t>Vaccine</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>DTaP</t>
+  </si>
+  <si>
+    <t>IPV</t>
+  </si>
+  <si>
+    <t>VAR</t>
+  </si>
+  <si>
     <t>Year</t>
   </si>
   <si>
@@ -791,595 +968,226 @@
     <t>Mean_Error</t>
   </si>
   <si>
-    <t>4.90%</t>
-  </si>
-  <si>
-    <t>4.79%</t>
+    <t>4.85%</t>
+  </si>
+  <si>
+    <t>4.77%</t>
+  </si>
+  <si>
+    <t>3.20%</t>
+  </si>
+  <si>
+    <t>3.79%</t>
+  </si>
+  <si>
+    <t>3.46%</t>
+  </si>
+  <si>
+    <t>3.78%</t>
+  </si>
+  <si>
+    <t>4.70%</t>
+  </si>
+  <si>
+    <t>4.59%</t>
+  </si>
+  <si>
+    <t>3.09%</t>
+  </si>
+  <si>
+    <t>3.85%</t>
+  </si>
+  <si>
+    <t>3.53%</t>
+  </si>
+  <si>
+    <t>3.73%</t>
+  </si>
+  <si>
+    <t>4.47%</t>
+  </si>
+  <si>
+    <t>4.49%</t>
+  </si>
+  <si>
+    <t>3.06%</t>
+  </si>
+  <si>
+    <t>3.66%</t>
   </si>
   <si>
     <t>3.40%</t>
   </si>
   <si>
-    <t>3.94%</t>
-  </si>
-  <si>
-    <t>3.61%</t>
+    <t>3.65%</t>
+  </si>
+  <si>
+    <t>5.07%</t>
+  </si>
+  <si>
+    <t>4.86%</t>
+  </si>
+  <si>
+    <t>3.13%</t>
   </si>
   <si>
     <t>3.89%</t>
   </si>
   <si>
-    <t>4.78%</t>
-  </si>
-  <si>
-    <t>4.65%</t>
-  </si>
-  <si>
-    <t>3.22%</t>
-  </si>
-  <si>
-    <t>3.95%</t>
-  </si>
-  <si>
-    <t>3.58%</t>
-  </si>
-  <si>
-    <t>3.69%</t>
-  </si>
-  <si>
-    <t>4.59%</t>
-  </si>
-  <si>
-    <t>4.60%</t>
-  </si>
-  <si>
-    <t>3.26%</t>
-  </si>
-  <si>
-    <t>3.83%</t>
-  </si>
-  <si>
-    <t>3.49%</t>
-  </si>
-  <si>
-    <t>3.66%</t>
-  </si>
-  <si>
-    <t>5.17%</t>
-  </si>
-  <si>
-    <t>4.99%</t>
-  </si>
-  <si>
-    <t>3.32%</t>
-  </si>
-  <si>
-    <t>4.05%</t>
-  </si>
-  <si>
-    <t>3.57%</t>
-  </si>
-  <si>
-    <t>3.62%</t>
+    <t>3.47%</t>
+  </si>
+  <si>
+    <t>3.56%</t>
   </si>
   <si>
     <t>Median_Error</t>
   </si>
   <si>
-    <t>3.32%</t>
-  </si>
-  <si>
-    <t>2.90%</t>
-  </si>
-  <si>
-    <t>2.64%</t>
-  </si>
-  <si>
-    <t>2.83%</t>
-  </si>
-  <si>
-    <t>2.57%</t>
+    <t>3.33%</t>
+  </si>
+  <si>
+    <t>2.87%</t>
+  </si>
+  <si>
+    <t>2.33%</t>
+  </si>
+  <si>
+    <t>2.51%</t>
+  </si>
+  <si>
+    <t>2.35%</t>
+  </si>
+  <si>
+    <t>2.50%</t>
+  </si>
+  <si>
+    <t>3.07%</t>
   </si>
   <si>
     <t>2.72%</t>
   </si>
   <si>
-    <t>3.17%</t>
-  </si>
-  <si>
-    <t>2.89%</t>
+    <t>2.22%</t>
+  </si>
+  <si>
+    <t>2.56%</t>
+  </si>
+  <si>
+    <t>2.42%</t>
+  </si>
+  <si>
+    <t>2.53%</t>
+  </si>
+  <si>
+    <t>3.00%</t>
+  </si>
+  <si>
+    <t>2.52%</t>
+  </si>
+  <si>
+    <t>2.17%</t>
+  </si>
+  <si>
+    <t>2.39%</t>
+  </si>
+  <si>
+    <t>2.25%</t>
+  </si>
+  <si>
+    <t>2.41%</t>
+  </si>
+  <si>
+    <t>3.42%</t>
+  </si>
+  <si>
+    <t>2.75%</t>
+  </si>
+  <si>
+    <t>2.26%</t>
   </si>
   <si>
     <t>2.48%</t>
   </si>
   <si>
-    <t>2.71%</t>
-  </si>
-  <si>
-    <t>2.49%</t>
-  </si>
-  <si>
-    <t>2.57%</t>
-  </si>
-  <si>
-    <t>3.22%</t>
-  </si>
-  <si>
-    <t>2.82%</t>
-  </si>
-  <si>
-    <t>2.53%</t>
-  </si>
-  <si>
-    <t>2.68%</t>
-  </si>
-  <si>
-    <t>2.47%</t>
-  </si>
-  <si>
-    <t>2.53%</t>
-  </si>
-  <si>
-    <t>3.59%</t>
-  </si>
-  <si>
-    <t>3.13%</t>
-  </si>
-  <si>
-    <t>2.56%</t>
-  </si>
-  <si>
-    <t>2.82%</t>
-  </si>
-  <si>
-    <t>2.55%</t>
-  </si>
-  <si>
-    <t>2.53%</t>
+    <t>2.25%</t>
+  </si>
+  <si>
+    <t>2.43%</t>
   </si>
   <si>
     <t>Error_within_5</t>
   </si>
   <si>
-    <t>0.728</t>
+    <t>0.721</t>
+  </si>
+  <si>
+    <t>0.748</t>
+  </si>
+  <si>
+    <t>0.863</t>
+  </si>
+  <si>
+    <t>0.804</t>
+  </si>
+  <si>
+    <t>0.816</t>
+  </si>
+  <si>
+    <t>0.795</t>
+  </si>
+  <si>
+    <t>0.753</t>
   </si>
   <si>
     <t>0.761</t>
   </si>
   <si>
-    <t>0.845</t>
-  </si>
-  <si>
-    <t>0.792</t>
+    <t>0.867</t>
+  </si>
+  <si>
+    <t>0.806</t>
   </si>
   <si>
     <t>0.804</t>
   </si>
   <si>
-    <t>0.772</t>
-  </si>
-  <si>
-    <t>0.745</t>
+    <t>0.774</t>
+  </si>
+  <si>
+    <t>0.748</t>
   </si>
   <si>
     <t>0.761</t>
   </si>
   <si>
-    <t>0.863</t>
-  </si>
-  <si>
-    <t>0.808</t>
+    <t>0.857</t>
+  </si>
+  <si>
+    <t>0.817</t>
+  </si>
+  <si>
+    <t>0.798</t>
+  </si>
+  <si>
+    <t>0.763</t>
+  </si>
+  <si>
+    <t>0.709</t>
+  </si>
+  <si>
+    <t>0.750</t>
+  </si>
+  <si>
+    <t>0.864</t>
+  </si>
+  <si>
+    <t>0.804</t>
+  </si>
+  <si>
+    <t>0.809</t>
   </si>
   <si>
     <t>0.802</t>
-  </si>
-  <si>
-    <t>0.792</t>
-  </si>
-  <si>
-    <t>0.740</t>
-  </si>
-  <si>
-    <t>0.755</t>
-  </si>
-  <si>
-    <t>0.853</t>
-  </si>
-  <si>
-    <t>0.808</t>
-  </si>
-  <si>
-    <t>0.802</t>
-  </si>
-  <si>
-    <t>0.776</t>
-  </si>
-  <si>
-    <t>0.700</t>
-  </si>
-  <si>
-    <t>0.747</t>
-  </si>
-  <si>
-    <t>0.860</t>
-  </si>
-  <si>
-    <t>0.801</t>
-  </si>
-  <si>
-    <t>0.810</t>
-  </si>
-  <si>
-    <t>0.808</t>
-  </si>
-  <si>
-    <t>Measure</t>
-  </si>
-  <si>
-    <t>Trust</t>
-  </si>
-  <si>
-    <t>Proportion of states trust declined</t>
-  </si>
-  <si>
-    <t>Extent of decline in trust</t>
-  </si>
-  <si>
-    <t>Probability of initial decent</t>
-  </si>
-  <si>
-    <t>Trust</t>
-  </si>
-  <si>
-    <t>Trust_in_Science</t>
-  </si>
-  <si>
-    <t>Trust_in_Medicine</t>
-  </si>
-  <si>
-    <t>Trust_in_Science</t>
-  </si>
-  <si>
-    <t>Trust_in_Medicine</t>
-  </si>
-  <si>
-    <t>Trust_in_Science</t>
-  </si>
-  <si>
-    <t>Trust_in_Medicine</t>
-  </si>
-  <si>
-    <t>Trust_in_Science</t>
-  </si>
-  <si>
-    <t>Trust_in_Medicine</t>
-  </si>
-  <si>
-    <t>2017–18</t>
-  </si>
-  <si>
-    <t>68.7% (57.5%–74.7%) (n = 49)</t>
-  </si>
-  <si>
-    <t>62.2% (53.6%–70.8%) (n = 49)</t>
-  </si>
-  <si>
-    <t>———</t>
-  </si>
-  <si>
-    <t>0.002 (0.000–0.006)</t>
-  </si>
-  <si>
-    <t>0.008 (0.002–0.016)</t>
-  </si>
-  <si>
-    <t>2018–19</t>
-  </si>
-  <si>
-    <t>69.2% (57.2%–75.6%) (n = 49)</t>
-  </si>
-  <si>
-    <t>62.9% (52.1%–71.4%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.417 (0.286–0.551) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.397 (0.265–0.531) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.5% (-4.6%–3.9%) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.6% (-5.7%–4.2%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.029 (0.015–0.044)</t>
-  </si>
-  <si>
-    <t>0.057 (0.038–0.079)</t>
-  </si>
-  <si>
-    <t>2019–20</t>
-  </si>
-  <si>
-    <t>69.7% (59.0%–76.3%) (n = 49)</t>
-  </si>
-  <si>
-    <t>63.4% (53.6%–71.1%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.387 (0.245–0.531) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.416 (0.286–0.551) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.5% (-4.8%–3.4%) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.6% (-5.6%–4.6%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.036 (0.020–0.053)</t>
-  </si>
-  <si>
-    <t>0.080 (0.057–0.105)</t>
-  </si>
-  <si>
-    <t>2020–21</t>
-  </si>
-  <si>
-    <t>70.1% (58.7%–75.1%) (n = 49)</t>
-  </si>
-  <si>
-    <t>63.8% (55.0%–71.2%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.426 (0.286–0.571) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.3% (-3.7%–2.9%) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.5% (-5.0%–4.3%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.196 (0.161–0.230)</t>
-  </si>
-  <si>
-    <t>0.209 (0.173–0.245)</t>
-  </si>
-  <si>
-    <t>2021–22</t>
-  </si>
-  <si>
-    <t>69.6% (60.2%–75.7%) (n = 49)</t>
-  </si>
-  <si>
-    <t>63.4% (54.6%–70.2%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.623 (0.490–0.755) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.576 (0.429–0.714) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.5% (-2.7%–3.4%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.4% (-3.7%–4.8%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.738 (0.700–0.776)</t>
-  </si>
-  <si>
-    <t>0.646 (0.603–0.687)</t>
-  </si>
-  <si>
-    <t>2022–23</t>
-  </si>
-  <si>
-    <t>63.3% (55.3%–76.6%) (n = 49)</t>
-  </si>
-  <si>
-    <t>57.6% (49.9%–63.8%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.997 (0.980–1.000) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.995 (0.959–1.000) (n = 49)</t>
-  </si>
-  <si>
-    <t>6.4% (2.0%–10.0%) (n = 49)</t>
-  </si>
-  <si>
-    <t>5.9% (1.6%–10.1%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.000 (0.000–0.000)</t>
-  </si>
-  <si>
-    <t>Vaccine</t>
-  </si>
-  <si>
-    <t>MMR</t>
-  </si>
-  <si>
-    <t>DTaP</t>
-  </si>
-  <si>
-    <t>IPV</t>
-  </si>
-  <si>
-    <t>VAR</t>
-  </si>
-  <si>
-    <t>ReligousExemptions</t>
-  </si>
-  <si>
-    <t>-0.961(-0.965–-0.953)</t>
-  </si>
-  <si>
-    <t>-0.820(-0.833–-0.818)</t>
-  </si>
-  <si>
-    <t>-0.778(-0.806–-0.760)</t>
-  </si>
-  <si>
-    <t>-0.925(-0.950–-0.894)</t>
-  </si>
-  <si>
-    <t>PhilosophicalExemptions</t>
-  </si>
-  <si>
-    <t>-0.228(-0.233–-0.220)</t>
-  </si>
-  <si>
-    <t>-0.161(-0.162–-0.159)</t>
-  </si>
-  <si>
-    <t>-0.150(-0.165–-0.138)</t>
-  </si>
-  <si>
-    <t>-0.094(-0.107–-0.083)</t>
-  </si>
-  <si>
-    <t>Intercept</t>
-  </si>
-  <si>
-    <t>3.774(3.628–4.063)</t>
-  </si>
-  <si>
-    <t>2.653(2.277–3.062)</t>
-  </si>
-  <si>
-    <t>3.139(2.843–3.539)</t>
-  </si>
-  <si>
-    <t>3.569(2.706–4.898)</t>
-  </si>
-  <si>
-    <t>Economic</t>
-  </si>
-  <si>
-    <t>-0.001(-0.041–0.009)</t>
-  </si>
-  <si>
-    <t>0.015(0.000–0.045)</t>
-  </si>
-  <si>
-    <t>-0.008(-0.205–0.041)</t>
-  </si>
-  <si>
-    <t>-0.010(-0.145–0.071)</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>-0.574(-0.649–-0.532)</t>
-  </si>
-  <si>
-    <t>-0.437(-0.576–-0.403)</t>
-  </si>
-  <si>
-    <t>-0.777(-0.872–-0.567)</t>
-  </si>
-  <si>
-    <t>-0.716(-0.803–-0.624)</t>
-  </si>
-  <si>
-    <t>Income</t>
-  </si>
-  <si>
-    <t>-0.009(-0.035–0.000)</t>
-  </si>
-  <si>
-    <t>0.015(0.000–0.046)</t>
-  </si>
-  <si>
-    <t>-0.002(-0.039–0.000)</t>
-  </si>
-  <si>
-    <t>-0.003(-0.112–0.088)</t>
-  </si>
-  <si>
-    <t>Politcal</t>
-  </si>
-  <si>
-    <t>0.019(0.000–0.078)</t>
-  </si>
-  <si>
-    <t>-0.184(-0.199–0.000)</t>
-  </si>
-  <si>
-    <t>-0.028(-0.087–0.088)</t>
-  </si>
-  <si>
-    <t>0.007(-0.031–0.083)</t>
-  </si>
-  <si>
-    <t>Race</t>
-  </si>
-  <si>
-    <t>-0.085(-0.091–-0.073)</t>
-  </si>
-  <si>
-    <t>-0.127(-0.135–0.000)</t>
-  </si>
-  <si>
-    <t>-0.119(-0.180–0.000)</t>
-  </si>
-  <si>
-    <t>-0.077(-0.145–0.000)</t>
-  </si>
-  <si>
-    <t>TrustInMedicine</t>
-  </si>
-  <si>
-    <t>0.006(0.000–0.000)</t>
-  </si>
-  <si>
-    <t>0.719(0.701–0.821)</t>
-  </si>
-  <si>
-    <t>0.206(0.000–0.669)</t>
-  </si>
-  <si>
-    <t>0.462(0.000–0.778)</t>
-  </si>
-  <si>
-    <t>TrustInScience</t>
-  </si>
-  <si>
-    <t>0.527(0.519–0.560)</t>
-  </si>
-  <si>
-    <t>0.000(0.000–0.000)</t>
-  </si>
-  <si>
-    <t>0.117(0.000–0.290)</t>
-  </si>
-  <si>
-    <t>0.199(0.000–0.516)</t>
-  </si>
-  <si>
-    <t>UninsuredUnder19</t>
-  </si>
-  <si>
-    <t>-0.000(0.000–0.000)</t>
-  </si>
-  <si>
-    <t>-0.267(-0.275–-0.159)</t>
-  </si>
-  <si>
-    <t>-0.252(-0.297–-0.163)</t>
-  </si>
-  <si>
-    <t>-0.048(-0.162–0.000)</t>
   </si>
 </sst>
 </file>
@@ -1400,7 +1208,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1408,14 +1216,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1431,6 +1238,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1752,21 +1563,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD211A94-42F7-4283-ABD4-302E758CBFC4}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="true"/>
-    <col min="2" max="2" width="14.5703125" customWidth="true"/>
-    <col min="3" max="5" width="25" customWidth="true"/>
-    <col min="6" max="6" width="24.5703125" customWidth="true"/>
-    <col min="7" max="7" width="25" customWidth="true"/>
-    <col min="8" max="8" width="24.5703125" customWidth="true"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1792,7 +1603,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1815,7 +1626,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1838,7 +1649,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1861,7 +1672,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1884,7 +1695,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1907,7 +1718,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1930,7 +1741,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1953,7 +1764,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1976,7 +1787,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1999,7 +1810,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -2022,7 +1833,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2045,7 +1856,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2068,7 +1879,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -2091,7 +1902,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -2114,7 +1925,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -2137,7 +1948,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -2160,7 +1971,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -2183,7 +1994,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -2206,7 +2017,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2229,7 +2040,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2252,7 +2063,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2275,7 +2086,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2298,7 +2109,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2321,7 +2132,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2351,908 +2162,919 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H9"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="true"/>
-    <col min="2" max="2" width="17.5703125" customWidth="true"/>
-    <col min="3" max="3" width="26.28515625" customWidth="true"/>
-    <col min="4" max="4" width="26.28515625" customWidth="true"/>
-    <col min="5" max="5" width="26.28515625" customWidth="true"/>
-    <col min="6" max="6" width="26.28515625" customWidth="true"/>
-    <col min="7" max="7" width="26.28515625" customWidth="true"/>
-    <col min="8" max="8" width="26.28515625" customWidth="true"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="8" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>363</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>340</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>355</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>347</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>365</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>357</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>366</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>358</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>366</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>376</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>351</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>361</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>353</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>387</v>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" t="s">
+        <v>207</v>
+      </c>
+      <c r="H6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" t="s">
+        <v>192</v>
+      </c>
+      <c r="F8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G8" t="s">
+        <v>209</v>
+      </c>
+      <c r="H8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G9" t="s">
+        <v>210</v>
+      </c>
+      <c r="H9" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E25"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="true"/>
-    <col min="2" max="2" width="8.140625" customWidth="true"/>
-    <col min="3" max="3" width="11.42578125" customWidth="true"/>
-    <col min="4" max="4" width="13.140625" customWidth="true"/>
-    <col min="5" max="5" width="14.140625" customWidth="true"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" customWidth="1"/>
+    <col min="10" max="11" width="17.28515625" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J1" t="s">
+        <v>264</v>
+      </c>
+      <c r="K1" t="s">
+        <v>269</v>
+      </c>
+      <c r="L1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B2" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G2" t="s">
         <v>250</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="H2" t="s">
+        <v>255</v>
+      </c>
+      <c r="I2" t="s">
+        <v>260</v>
+      </c>
+      <c r="J2" t="s">
+        <v>265</v>
+      </c>
+      <c r="K2" t="s">
+        <v>270</v>
+      </c>
+      <c r="L2" t="s">
         <v>275</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B3" t="s">
         <v>226</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G3" t="s">
         <v>251</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="H3" t="s">
+        <v>256</v>
+      </c>
+      <c r="I3" t="s">
+        <v>261</v>
+      </c>
+      <c r="J3" t="s">
+        <v>266</v>
+      </c>
+      <c r="K3" t="s">
+        <v>271</v>
+      </c>
+      <c r="L3" t="s">
         <v>276</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="B3" s="0" t="s">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" t="s">
         <v>227</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G4" t="s">
         <v>252</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="H4" t="s">
+        <v>257</v>
+      </c>
+      <c r="I4" t="s">
+        <v>262</v>
+      </c>
+      <c r="J4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K4" t="s">
+        <v>272</v>
+      </c>
+      <c r="L4" t="s">
         <v>277</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="B4" s="0" t="s">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" t="s">
         <v>228</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E5" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G5" t="s">
         <v>253</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="H5" t="s">
+        <v>258</v>
+      </c>
+      <c r="I5" t="s">
+        <v>263</v>
+      </c>
+      <c r="J5" t="s">
+        <v>268</v>
+      </c>
+      <c r="K5" t="s">
+        <v>273</v>
+      </c>
+      <c r="L5" t="s">
         <v>278</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>324</v>
-      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="true"/>
-    <col min="2" max="2" width="19.42578125" customWidth="true"/>
-    <col min="3" max="3" width="23.42578125" customWidth="true"/>
-    <col min="4" max="4" width="17.28515625" customWidth="true"/>
-    <col min="5" max="5" width="18.7109375" customWidth="true"/>
-    <col min="6" max="6" width="19.42578125" customWidth="true"/>
-    <col min="7" max="7" width="18.7109375" customWidth="true"/>
-    <col min="8" max="8" width="18.7109375" customWidth="true"/>
-    <col min="9" max="9" width="19.42578125" customWidth="true"/>
-    <col min="10" max="10" width="17.28515625" customWidth="true"/>
-    <col min="11" max="11" width="17.28515625" customWidth="true"/>
-    <col min="12" max="12" width="19.42578125" customWidth="true"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>393</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>398</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>408</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>413</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>423</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>428</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>433</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>438</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>404</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>409</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>414</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>419</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>434</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>405</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>415</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>425</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>435</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>440</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>411</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>416</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>421</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>426</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>436</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>441</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>392</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>402</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>407</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>412</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>417</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>427</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>432</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>437</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>442</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>447</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D4" t="s">
+        <v>337</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D6" t="s">
+        <v>339</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" t="s">
+        <v>315</v>
+      </c>
+      <c r="D7" t="s">
+        <v>340</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C8" t="s">
+        <v>316</v>
+      </c>
+      <c r="D8" t="s">
+        <v>341</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" t="s">
+        <v>317</v>
+      </c>
+      <c r="D9" t="s">
+        <v>342</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C10" t="s">
+        <v>318</v>
+      </c>
+      <c r="D10" t="s">
+        <v>343</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C11" t="s">
+        <v>319</v>
+      </c>
+      <c r="D11" t="s">
+        <v>344</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>281</v>
+      </c>
+      <c r="B12" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" t="s">
+        <v>320</v>
+      </c>
+      <c r="D12" t="s">
+        <v>345</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>281</v>
+      </c>
+      <c r="B13" t="s">
+        <v>296</v>
+      </c>
+      <c r="C13" t="s">
+        <v>321</v>
+      </c>
+      <c r="D13" t="s">
+        <v>346</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>282</v>
+      </c>
+      <c r="B14" t="s">
+        <v>297</v>
+      </c>
+      <c r="C14" t="s">
+        <v>322</v>
+      </c>
+      <c r="D14" t="s">
+        <v>347</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>282</v>
+      </c>
+      <c r="B15" t="s">
+        <v>298</v>
+      </c>
+      <c r="C15" t="s">
+        <v>323</v>
+      </c>
+      <c r="D15" t="s">
+        <v>348</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>282</v>
+      </c>
+      <c r="B16" t="s">
+        <v>299</v>
+      </c>
+      <c r="C16" t="s">
+        <v>324</v>
+      </c>
+      <c r="D16" t="s">
+        <v>349</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>282</v>
+      </c>
+      <c r="B17" t="s">
+        <v>300</v>
+      </c>
+      <c r="C17" t="s">
+        <v>325</v>
+      </c>
+      <c r="D17" t="s">
+        <v>350</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>282</v>
+      </c>
+      <c r="B18" t="s">
+        <v>301</v>
+      </c>
+      <c r="C18" t="s">
+        <v>326</v>
+      </c>
+      <c r="D18" t="s">
+        <v>351</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>282</v>
+      </c>
+      <c r="B19" t="s">
+        <v>302</v>
+      </c>
+      <c r="C19" t="s">
+        <v>327</v>
+      </c>
+      <c r="D19" t="s">
+        <v>352</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>283</v>
+      </c>
+      <c r="B20" t="s">
+        <v>303</v>
+      </c>
+      <c r="C20" t="s">
+        <v>328</v>
+      </c>
+      <c r="D20" t="s">
+        <v>353</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>283</v>
+      </c>
+      <c r="B21" t="s">
+        <v>304</v>
+      </c>
+      <c r="C21" t="s">
+        <v>329</v>
+      </c>
+      <c r="D21" t="s">
+        <v>354</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>283</v>
+      </c>
+      <c r="B22" t="s">
+        <v>305</v>
+      </c>
+      <c r="C22" t="s">
+        <v>330</v>
+      </c>
+      <c r="D22" t="s">
+        <v>355</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>283</v>
+      </c>
+      <c r="B23" t="s">
+        <v>306</v>
+      </c>
+      <c r="C23" t="s">
+        <v>331</v>
+      </c>
+      <c r="D23" t="s">
+        <v>356</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B24" t="s">
+        <v>307</v>
+      </c>
+      <c r="C24" t="s">
+        <v>332</v>
+      </c>
+      <c r="D24" t="s">
+        <v>357</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>283</v>
+      </c>
+      <c r="B25" t="s">
+        <v>308</v>
+      </c>
+      <c r="C25" t="s">
+        <v>333</v>
+      </c>
+      <c r="D25" t="s">
+        <v>358</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tables_Supplement_Text.xlsx
+++ b/Tables_Supplement_Text.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="20" documentId="115_{C2F0D474-E221-47E8-8568-232EB7A2348E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7A056F3-154A-4665-93DF-868B49938BDD}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Table_S1" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Table_S3" sheetId="5" r:id="rId3"/>
     <sheet name="Table_S4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="449">
   <si>
     <t>Vaccine</t>
   </si>
@@ -1188,6 +1188,201 @@
   </si>
   <si>
     <t>0.802</t>
+  </si>
+  <si>
+    <t>Measure</t>
+  </si>
+  <si>
+    <t>Trust</t>
+  </si>
+  <si>
+    <t>Proportion of states trust declined</t>
+  </si>
+  <si>
+    <t>Extent of decline in trust</t>
+  </si>
+  <si>
+    <t>Probability of initial decent</t>
+  </si>
+  <si>
+    <t>Trust</t>
+  </si>
+  <si>
+    <t>Trust_in_Science</t>
+  </si>
+  <si>
+    <t>Trust_in_Medicine</t>
+  </si>
+  <si>
+    <t>Trust_in_Science</t>
+  </si>
+  <si>
+    <t>Trust_in_Medicine</t>
+  </si>
+  <si>
+    <t>Trust_in_Science</t>
+  </si>
+  <si>
+    <t>Trust_in_Medicine</t>
+  </si>
+  <si>
+    <t>Trust_in_Science</t>
+  </si>
+  <si>
+    <t>Trust_in_Medicine</t>
+  </si>
+  <si>
+    <t>2017–18</t>
+  </si>
+  <si>
+    <t>68.7% (57.0%–75.7%) (n = 49)</t>
+  </si>
+  <si>
+    <t>62.4% (52.6%–71.7%) (n = 49)</t>
+  </si>
+  <si>
+    <t>———</t>
+  </si>
+  <si>
+    <t>0.002 (0.000–0.008)</t>
+  </si>
+  <si>
+    <t>0.009 (0.002–0.018)</t>
+  </si>
+  <si>
+    <t>2018–19</t>
+  </si>
+  <si>
+    <t>69.2% (56.4%–75.7%) (n = 49)</t>
+  </si>
+  <si>
+    <t>62.9% (52.2%–72.9%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.416 (0.286–0.551) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.414 (0.286–0.551) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.4% (-4.7%–3.9%) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.5% (-5.5%–4.2%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.024 (0.012–0.038)</t>
+  </si>
+  <si>
+    <t>0.061 (0.040–0.082)</t>
+  </si>
+  <si>
+    <t>2019–20</t>
+  </si>
+  <si>
+    <t>69.7% (57.3%–75.6%) (n = 49)</t>
+  </si>
+  <si>
+    <t>63.4% (53.1%–72.6%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.389 (0.265–0.531) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.422 (0.286–0.551) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.5% (-4.7%–3.3%) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.5% (-5.7%–4.7%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.048 (0.030–0.067)</t>
+  </si>
+  <si>
+    <t>0.077 (0.055–0.101)</t>
+  </si>
+  <si>
+    <t>2020–21</t>
+  </si>
+  <si>
+    <t>70.0% (59.3%–76.0%) (n = 49)</t>
+  </si>
+  <si>
+    <t>63.7% (53.7%–72.6%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.431 (0.286–0.571) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.446 (0.306–0.592) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.3% (-3.7%–3.0%) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.3% (-5.1%–4.5%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.168 (0.136–0.202)</t>
+  </si>
+  <si>
+    <t>0.189 (0.155–0.223)</t>
+  </si>
+  <si>
+    <t>2021–22</t>
+  </si>
+  <si>
+    <t>69.6% (59.7%–76.0%) (n = 49)</t>
+  </si>
+  <si>
+    <t>63.4% (54.0%–71.8%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.616 (0.490–0.755) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.563 (0.429–0.694) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.4% (-2.5%–3.3%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.3% (-3.8%–4.8%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.758 (0.719–0.795)</t>
+  </si>
+  <si>
+    <t>0.664 (0.623–0.705)</t>
+  </si>
+  <si>
+    <t>2022–23</t>
+  </si>
+  <si>
+    <t>63.3% (53.9%–75.5%) (n = 49)</t>
+  </si>
+  <si>
+    <t>57.5% (48.6%–64.7%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.997 (0.980–1.000) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.994 (0.959–1.000) (n = 49)</t>
+  </si>
+  <si>
+    <t>6.4% (2.0%–9.9%) (n = 49)</t>
+  </si>
+  <si>
+    <t>5.8% (1.6%–10.3%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.000 (0.000–0.000)</t>
+  </si>
+  <si>
+    <t>0.000 (0.000–0.001)</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1403,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1216,13 +1411,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1569,15 +1766,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1"/>
-    <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8" customWidth="true"/>
+    <col min="2" max="2" width="14.5703125" customWidth="true"/>
+    <col min="3" max="5" width="25" customWidth="true"/>
+    <col min="6" max="6" width="24.5703125" customWidth="true"/>
+    <col min="7" max="7" width="25" customWidth="true"/>
+    <col min="8" max="8" width="24.5703125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1603,7 +1800,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1626,7 +1823,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1649,7 +1846,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1672,7 +1869,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1695,7 +1892,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1718,7 +1915,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1741,7 +1938,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1764,7 +1961,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1787,7 +1984,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1810,7 +2007,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1833,7 +2030,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1856,7 +2053,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1879,7 +2076,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1902,7 +2099,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1925,7 +2122,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1948,7 +2145,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1971,7 +2168,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1994,7 +2191,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -2017,7 +2214,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2040,7 +2237,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2063,7 +2260,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2086,7 +2283,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2109,7 +2306,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2132,7 +2329,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2169,243 +2366,248 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="8" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="true"/>
+    <col min="2" max="2" width="17.5703125" customWidth="true"/>
+    <col min="3" max="3" width="26.28515625" customWidth="true"/>
+    <col min="4" max="4" width="26.28515625" customWidth="true"/>
+    <col min="5" max="5" width="26.28515625" customWidth="true"/>
+    <col min="6" max="6" width="26.28515625" customWidth="true"/>
+    <col min="7" max="7" width="26.28515625" customWidth="true"/>
+    <col min="8" max="8" width="26.28515625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G2" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G3" t="s">
-        <v>204</v>
-      </c>
-      <c r="H3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G4" t="s">
-        <v>205</v>
-      </c>
-      <c r="H4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E5" t="s">
-        <v>189</v>
-      </c>
-      <c r="F5" t="s">
-        <v>197</v>
-      </c>
-      <c r="G5" t="s">
-        <v>206</v>
-      </c>
-      <c r="H5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D6" t="s">
-        <v>181</v>
-      </c>
-      <c r="E6" t="s">
-        <v>190</v>
-      </c>
-      <c r="F6" t="s">
-        <v>198</v>
-      </c>
-      <c r="G6" t="s">
-        <v>207</v>
-      </c>
-      <c r="H6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" t="s">
-        <v>182</v>
-      </c>
-      <c r="E7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" t="s">
-        <v>183</v>
-      </c>
-      <c r="E8" t="s">
-        <v>192</v>
-      </c>
-      <c r="F8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G8" t="s">
-        <v>209</v>
-      </c>
-      <c r="H8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B9" t="s">
-        <v>169</v>
-      </c>
-      <c r="C9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E9" t="s">
-        <v>193</v>
-      </c>
-      <c r="F9" t="s">
-        <v>201</v>
-      </c>
-      <c r="G9" t="s">
-        <v>210</v>
-      </c>
-      <c r="H9" t="s">
-        <v>218</v>
+    <row r="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.25">
+      <c r="A2" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.25">
+      <c r="A3" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.25">
+      <c r="A4" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.25">
+      <c r="A5" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.25">
+      <c r="A6" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.25">
+      <c r="A7" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.25">
+      <c r="A8" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.25">
+      <c r="A9" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -2417,25 +2619,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" customWidth="1"/>
-    <col min="10" max="11" width="17.28515625" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8" customWidth="true"/>
+    <col min="2" max="2" width="19.42578125" customWidth="true"/>
+    <col min="3" max="3" width="23.42578125" customWidth="true"/>
+    <col min="4" max="4" width="17.28515625" customWidth="true"/>
+    <col min="5" max="5" width="18.7109375" customWidth="true"/>
+    <col min="6" max="6" width="19.42578125" customWidth="true"/>
+    <col min="7" max="8" width="18.7109375" customWidth="true"/>
+    <col min="9" max="9" width="19.42578125" customWidth="true"/>
+    <col min="10" max="11" width="17.28515625" customWidth="true"/>
+    <col min="12" max="12" width="19.42578125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>219</v>
       </c>
@@ -2473,7 +2675,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>220</v>
       </c>
@@ -2511,7 +2713,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>221</v>
       </c>
@@ -2549,7 +2751,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>222</v>
       </c>
@@ -2587,7 +2789,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>223</v>
       </c>
@@ -2641,14 +2843,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8" customWidth="true"/>
+    <col min="2" max="2" width="8.140625" customWidth="true"/>
+    <col min="3" max="3" width="11.42578125" customWidth="true"/>
+    <col min="4" max="4" width="13.140625" customWidth="true"/>
+    <col min="5" max="5" width="14.140625" style="1" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>279</v>
       </c>
@@ -2665,7 +2867,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>280</v>
       </c>
@@ -2682,7 +2884,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>280</v>
       </c>
@@ -2699,7 +2901,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>280</v>
       </c>
@@ -2716,7 +2918,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>280</v>
       </c>
@@ -2733,7 +2935,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>280</v>
       </c>
@@ -2750,7 +2952,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>280</v>
       </c>
@@ -2767,7 +2969,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>281</v>
       </c>
@@ -2784,7 +2986,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>281</v>
       </c>
@@ -2801,7 +3003,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>281</v>
       </c>
@@ -2818,7 +3020,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>281</v>
       </c>
@@ -2835,7 +3037,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>281</v>
       </c>
@@ -2852,7 +3054,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>281</v>
       </c>
@@ -2869,7 +3071,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>282</v>
       </c>
@@ -2886,7 +3088,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>282</v>
       </c>
@@ -2903,7 +3105,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>282</v>
       </c>
@@ -2920,7 +3122,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>282</v>
       </c>
@@ -2937,7 +3139,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>282</v>
       </c>
@@ -2954,7 +3156,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>282</v>
       </c>
@@ -2971,7 +3173,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>283</v>
       </c>
@@ -2988,7 +3190,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>283</v>
       </c>
@@ -3005,7 +3207,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>283</v>
       </c>
@@ -3022,7 +3224,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>283</v>
       </c>
@@ -3039,7 +3241,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>283</v>
       </c>
@@ -3056,7 +3258,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>283</v>
       </c>

--- a/Tables_Supplement_Text.xlsx
+++ b/Tables_Supplement_Text.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/263e6c96784ab765/Desktop/US_Childhood_Vaccination/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="115_{C2F0D474-E221-47E8-8568-232EB7A2348E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7A056F3-154A-4665-93DF-868B49938BDD}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="115_{C2F0D474-E221-47E8-8568-232EB7A2348E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E624A449-3871-4FD0-B6D9-AA03D2F64F30}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_S1" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Table_S3" sheetId="5" r:id="rId3"/>
     <sheet name="Table_S4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="386">
   <si>
     <t>Vaccine</t>
   </si>
@@ -506,6 +506,321 @@
     <t>0.531 (0.500–0.562) (n = 48)</t>
   </si>
   <si>
+    <t>Vaccine</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>DTaP</t>
+  </si>
+  <si>
+    <t>IPV</t>
+  </si>
+  <si>
+    <t>VAR</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>2017–18</t>
+  </si>
+  <si>
+    <t>2018–19</t>
+  </si>
+  <si>
+    <t>2019–20</t>
+  </si>
+  <si>
+    <t>2020–21</t>
+  </si>
+  <si>
+    <t>2021–22</t>
+  </si>
+  <si>
+    <t>2022–23</t>
+  </si>
+  <si>
+    <t>2017–18</t>
+  </si>
+  <si>
+    <t>2018–19</t>
+  </si>
+  <si>
+    <t>2019–20</t>
+  </si>
+  <si>
+    <t>2020–21</t>
+  </si>
+  <si>
+    <t>2021–22</t>
+  </si>
+  <si>
+    <t>2022–23</t>
+  </si>
+  <si>
+    <t>2017–18</t>
+  </si>
+  <si>
+    <t>2018–19</t>
+  </si>
+  <si>
+    <t>2019–20</t>
+  </si>
+  <si>
+    <t>2020–21</t>
+  </si>
+  <si>
+    <t>2021–22</t>
+  </si>
+  <si>
+    <t>2022–23</t>
+  </si>
+  <si>
+    <t>2017–18</t>
+  </si>
+  <si>
+    <t>2018–19</t>
+  </si>
+  <si>
+    <t>2019–20</t>
+  </si>
+  <si>
+    <t>2020–21</t>
+  </si>
+  <si>
+    <t>2021–22</t>
+  </si>
+  <si>
+    <t>2022–23</t>
+  </si>
+  <si>
+    <t>Mean_Error</t>
+  </si>
+  <si>
+    <t>4.85%</t>
+  </si>
+  <si>
+    <t>4.77%</t>
+  </si>
+  <si>
+    <t>3.20%</t>
+  </si>
+  <si>
+    <t>3.79%</t>
+  </si>
+  <si>
+    <t>3.46%</t>
+  </si>
+  <si>
+    <t>3.78%</t>
+  </si>
+  <si>
+    <t>4.70%</t>
+  </si>
+  <si>
+    <t>4.59%</t>
+  </si>
+  <si>
+    <t>3.09%</t>
+  </si>
+  <si>
+    <t>3.85%</t>
+  </si>
+  <si>
+    <t>3.53%</t>
+  </si>
+  <si>
+    <t>3.73%</t>
+  </si>
+  <si>
+    <t>4.47%</t>
+  </si>
+  <si>
+    <t>4.49%</t>
+  </si>
+  <si>
+    <t>3.06%</t>
+  </si>
+  <si>
+    <t>3.66%</t>
+  </si>
+  <si>
+    <t>3.40%</t>
+  </si>
+  <si>
+    <t>3.65%</t>
+  </si>
+  <si>
+    <t>5.07%</t>
+  </si>
+  <si>
+    <t>4.86%</t>
+  </si>
+  <si>
+    <t>3.13%</t>
+  </si>
+  <si>
+    <t>3.89%</t>
+  </si>
+  <si>
+    <t>3.47%</t>
+  </si>
+  <si>
+    <t>3.56%</t>
+  </si>
+  <si>
+    <t>Median_Error</t>
+  </si>
+  <si>
+    <t>3.33%</t>
+  </si>
+  <si>
+    <t>2.87%</t>
+  </si>
+  <si>
+    <t>2.33%</t>
+  </si>
+  <si>
+    <t>2.51%</t>
+  </si>
+  <si>
+    <t>2.35%</t>
+  </si>
+  <si>
+    <t>2.50%</t>
+  </si>
+  <si>
+    <t>3.07%</t>
+  </si>
+  <si>
+    <t>2.72%</t>
+  </si>
+  <si>
+    <t>2.22%</t>
+  </si>
+  <si>
+    <t>2.56%</t>
+  </si>
+  <si>
+    <t>2.42%</t>
+  </si>
+  <si>
+    <t>2.53%</t>
+  </si>
+  <si>
+    <t>3.00%</t>
+  </si>
+  <si>
+    <t>2.52%</t>
+  </si>
+  <si>
+    <t>2.17%</t>
+  </si>
+  <si>
+    <t>2.39%</t>
+  </si>
+  <si>
+    <t>2.25%</t>
+  </si>
+  <si>
+    <t>2.41%</t>
+  </si>
+  <si>
+    <t>3.42%</t>
+  </si>
+  <si>
+    <t>2.75%</t>
+  </si>
+  <si>
+    <t>2.26%</t>
+  </si>
+  <si>
+    <t>2.48%</t>
+  </si>
+  <si>
+    <t>2.25%</t>
+  </si>
+  <si>
+    <t>2.43%</t>
+  </si>
+  <si>
+    <t>Error_within_5</t>
+  </si>
+  <si>
+    <t>0.721</t>
+  </si>
+  <si>
+    <t>0.748</t>
+  </si>
+  <si>
+    <t>0.863</t>
+  </si>
+  <si>
+    <t>0.804</t>
+  </si>
+  <si>
+    <t>0.816</t>
+  </si>
+  <si>
+    <t>0.795</t>
+  </si>
+  <si>
+    <t>0.753</t>
+  </si>
+  <si>
+    <t>0.761</t>
+  </si>
+  <si>
+    <t>0.867</t>
+  </si>
+  <si>
+    <t>0.806</t>
+  </si>
+  <si>
+    <t>0.804</t>
+  </si>
+  <si>
+    <t>0.774</t>
+  </si>
+  <si>
+    <t>0.748</t>
+  </si>
+  <si>
+    <t>0.761</t>
+  </si>
+  <si>
+    <t>0.857</t>
+  </si>
+  <si>
+    <t>0.817</t>
+  </si>
+  <si>
+    <t>0.798</t>
+  </si>
+  <si>
+    <t>0.763</t>
+  </si>
+  <si>
+    <t>0.709</t>
+  </si>
+  <si>
+    <t>0.750</t>
+  </si>
+  <si>
+    <t>0.864</t>
+  </si>
+  <si>
+    <t>0.804</t>
+  </si>
+  <si>
+    <t>0.809</t>
+  </si>
+  <si>
+    <t>0.802</t>
+  </si>
+  <si>
     <t>Measure</t>
   </si>
   <si>
@@ -551,150 +866,156 @@
     <t>2017–18</t>
   </si>
   <si>
-    <t>68.7% (57.5%–74.7%) (n = 49)</t>
-  </si>
-  <si>
-    <t>62.2% (53.6%–70.8%) (n = 49)</t>
+    <t>68.7% (57.0%–75.7%) (n = 49)</t>
+  </si>
+  <si>
+    <t>62.4% (52.6%–71.7%) (n = 49)</t>
   </si>
   <si>
     <t>———</t>
   </si>
   <si>
-    <t>0.002 (0.000–0.006)</t>
-  </si>
-  <si>
-    <t>0.008 (0.002–0.016)</t>
+    <t>0.002 (0.000–0.008)</t>
+  </si>
+  <si>
+    <t>0.009 (0.002–0.018)</t>
   </si>
   <si>
     <t>2018–19</t>
   </si>
   <si>
-    <t>69.2% (57.2%–75.6%) (n = 49)</t>
-  </si>
-  <si>
-    <t>62.9% (52.1%–71.4%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.417 (0.286–0.551) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.397 (0.265–0.531) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.5% (-4.6%–3.9%) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.6% (-5.7%–4.2%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.029 (0.015–0.044)</t>
-  </si>
-  <si>
-    <t>0.057 (0.038–0.079)</t>
+    <t>69.2% (56.4%–75.7%) (n = 49)</t>
+  </si>
+  <si>
+    <t>62.9% (52.2%–72.9%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.416 (0.286–0.551) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.414 (0.286–0.551) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.4% (-4.7%–3.9%) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.5% (-5.5%–4.2%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.024 (0.012–0.038)</t>
+  </si>
+  <si>
+    <t>0.061 (0.040–0.082)</t>
   </si>
   <si>
     <t>2019–20</t>
   </si>
   <si>
-    <t>69.7% (59.0%–76.3%) (n = 49)</t>
-  </si>
-  <si>
-    <t>63.4% (53.6%–71.1%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.387 (0.245–0.531) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.416 (0.286–0.551) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.5% (-4.8%–3.4%) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.6% (-5.6%–4.6%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.036 (0.020–0.053)</t>
-  </si>
-  <si>
-    <t>0.080 (0.057–0.105)</t>
+    <t>69.7% (57.3%–75.6%) (n = 49)</t>
+  </si>
+  <si>
+    <t>63.4% (53.1%–72.6%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.389 (0.265–0.531) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.422 (0.286–0.551) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.5% (-4.7%–3.3%) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.5% (-5.7%–4.7%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.048 (0.030–0.067)</t>
+  </si>
+  <si>
+    <t>0.077 (0.055–0.101)</t>
   </si>
   <si>
     <t>2020–21</t>
   </si>
   <si>
-    <t>70.1% (58.7%–75.1%) (n = 49)</t>
-  </si>
-  <si>
-    <t>63.8% (55.0%–71.2%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.426 (0.286–0.571) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.3% (-3.7%–2.9%) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.5% (-5.0%–4.3%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.196 (0.161–0.230)</t>
-  </si>
-  <si>
-    <t>0.209 (0.173–0.245)</t>
+    <t>70.0% (59.3%–76.0%) (n = 49)</t>
+  </si>
+  <si>
+    <t>63.7% (53.7%–72.6%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.431 (0.286–0.571) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.446 (0.306–0.592) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.3% (-3.7%–3.0%) (n = 49)</t>
+  </si>
+  <si>
+    <t>-0.3% (-5.1%–4.5%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.168 (0.136–0.202)</t>
+  </si>
+  <si>
+    <t>0.189 (0.155–0.223)</t>
   </si>
   <si>
     <t>2021–22</t>
   </si>
   <si>
-    <t>69.6% (60.2%–75.7%) (n = 49)</t>
-  </si>
-  <si>
-    <t>63.4% (54.6%–70.2%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.623 (0.490–0.755) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.576 (0.429–0.714) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.5% (-2.7%–3.4%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.4% (-3.7%–4.8%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.738 (0.700–0.776)</t>
-  </si>
-  <si>
-    <t>0.646 (0.603–0.687)</t>
+    <t>69.6% (59.7%–76.0%) (n = 49)</t>
+  </si>
+  <si>
+    <t>63.4% (54.0%–71.8%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.616 (0.490–0.755) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.563 (0.429–0.694) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.4% (-2.5%–3.3%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.3% (-3.8%–4.8%) (n = 49)</t>
+  </si>
+  <si>
+    <t>0.758 (0.719–0.795)</t>
+  </si>
+  <si>
+    <t>0.664 (0.623–0.705)</t>
   </si>
   <si>
     <t>2022–23</t>
   </si>
   <si>
-    <t>63.3% (55.3%–76.6%) (n = 49)</t>
-  </si>
-  <si>
-    <t>57.6% (49.9%–63.8%) (n = 49)</t>
+    <t>63.3% (53.9%–75.5%) (n = 49)</t>
+  </si>
+  <si>
+    <t>57.5% (48.6%–64.7%) (n = 49)</t>
   </si>
   <si>
     <t>0.997 (0.980–1.000) (n = 49)</t>
   </si>
   <si>
-    <t>0.995 (0.959–1.000) (n = 49)</t>
-  </si>
-  <si>
-    <t>6.4% (2.0%–10.0%) (n = 49)</t>
-  </si>
-  <si>
-    <t>5.9% (1.6%–10.1%) (n = 49)</t>
+    <t>0.994 (0.959–1.000) (n = 49)</t>
+  </si>
+  <si>
+    <t>6.4% (2.0%–9.9%) (n = 49)</t>
+  </si>
+  <si>
+    <t>5.8% (1.6%–10.3%) (n = 49)</t>
   </si>
   <si>
     <t>0.000 (0.000–0.000)</t>
   </si>
   <si>
+    <t>0.000 (0.000–0.001)</t>
+  </si>
+  <si>
     <t>Vaccine</t>
   </si>
   <si>
@@ -713,676 +1034,166 @@
     <t>ReligousExemptions</t>
   </si>
   <si>
-    <t>-0.961(-0.965–-0.953)</t>
-  </si>
-  <si>
-    <t>-0.820(-0.833–-0.818)</t>
-  </si>
-  <si>
-    <t>-0.778(-0.806–-0.760)</t>
-  </si>
-  <si>
-    <t>-0.925(-0.950–-0.894)</t>
+    <t>-0.951(-0.965–-0.895)</t>
+  </si>
+  <si>
+    <t>-0.830(-0.878–-0.804)</t>
+  </si>
+  <si>
+    <t>-0.799(-0.852–-0.760)</t>
+  </si>
+  <si>
+    <t>-0.922(-0.950–-0.894)</t>
   </si>
   <si>
     <t>PhilosophicalExemptions</t>
   </si>
   <si>
-    <t>-0.228(-0.233–-0.220)</t>
-  </si>
-  <si>
-    <t>-0.161(-0.162–-0.159)</t>
-  </si>
-  <si>
-    <t>-0.150(-0.165–-0.138)</t>
-  </si>
-  <si>
-    <t>-0.094(-0.107–-0.083)</t>
+    <t>-0.217(-0.235–-0.192)</t>
+  </si>
+  <si>
+    <t>-0.163(-0.181–-0.147)</t>
+  </si>
+  <si>
+    <t>-0.157(-0.187–-0.138)</t>
+  </si>
+  <si>
+    <t>-0.092(-0.111–-0.080)</t>
   </si>
   <si>
     <t>Intercept</t>
   </si>
   <si>
-    <t>3.774(3.628–4.063)</t>
-  </si>
-  <si>
-    <t>2.653(2.277–3.062)</t>
-  </si>
-  <si>
-    <t>3.139(2.843–3.539)</t>
-  </si>
-  <si>
-    <t>3.569(2.706–4.898)</t>
+    <t>3.619(2.004–5.162)</t>
+  </si>
+  <si>
+    <t>3.035(1.643–5.922)</t>
+  </si>
+  <si>
+    <t>3.858(2.834–8.299)</t>
+  </si>
+  <si>
+    <t>3.852(2.706–6.393)</t>
   </si>
   <si>
     <t>Economic</t>
   </si>
   <si>
-    <t>-0.001(-0.041–0.009)</t>
-  </si>
-  <si>
-    <t>0.015(0.000–0.045)</t>
-  </si>
-  <si>
-    <t>-0.008(-0.205–0.041)</t>
-  </si>
-  <si>
-    <t>-0.010(-0.145–0.071)</t>
+    <t>0.006(-0.096–0.098)</t>
+  </si>
+  <si>
+    <t>0.007(-0.127–0.114)</t>
+  </si>
+  <si>
+    <t>-0.031(-0.238–0.044)</t>
+  </si>
+  <si>
+    <t>-0.017(-0.145–0.071)</t>
   </si>
   <si>
     <t>Education</t>
   </si>
   <si>
-    <t>-0.574(-0.649–-0.532)</t>
-  </si>
-  <si>
-    <t>-0.437(-0.592–-0.403)</t>
-  </si>
-  <si>
-    <t>-0.777(-0.872–-0.567)</t>
-  </si>
-  <si>
-    <t>-0.716(-0.803–-0.624)</t>
+    <t>-0.563(-0.649–-0.383)</t>
+  </si>
+  <si>
+    <t>-0.499(-0.652–0.000)</t>
+  </si>
+  <si>
+    <t>-0.732(-0.879–-0.506)</t>
+  </si>
+  <si>
+    <t>-0.713(-0.853–-0.502)</t>
   </si>
   <si>
     <t>Income</t>
   </si>
   <si>
-    <t>-0.009(-0.035–0.000)</t>
-  </si>
-  <si>
-    <t>0.015(0.000–0.046)</t>
-  </si>
-  <si>
-    <t>-0.002(-0.039–0.000)</t>
-  </si>
-  <si>
-    <t>-0.003(-0.112–0.088)</t>
+    <t>0.006(-0.136–0.150)</t>
+  </si>
+  <si>
+    <t>-0.002(-0.269–0.123)</t>
+  </si>
+  <si>
+    <t>-0.053(-0.478–0.000)</t>
+  </si>
+  <si>
+    <t>-0.031(-0.283–0.088)</t>
   </si>
   <si>
     <t>Politcal</t>
   </si>
   <si>
-    <t>0.019(0.000–0.078)</t>
-  </si>
-  <si>
-    <t>-0.184(-0.199–0.000)</t>
-  </si>
-  <si>
-    <t>-0.028(-0.087–0.088)</t>
-  </si>
-  <si>
-    <t>0.007(-0.031–0.083)</t>
+    <t>0.013(-0.114–0.083)</t>
+  </si>
+  <si>
+    <t>-0.084(-0.217–0.007)</t>
+  </si>
+  <si>
+    <t>0.027(-0.087–0.195)</t>
+  </si>
+  <si>
+    <t>0.026(-0.047–0.132)</t>
   </si>
   <si>
     <t>Race</t>
   </si>
   <si>
-    <t>-0.085(-0.091–-0.073)</t>
-  </si>
-  <si>
-    <t>-0.127(-0.135–0.000)</t>
-  </si>
-  <si>
-    <t>-0.119(-0.180–0.000)</t>
-  </si>
-  <si>
-    <t>-0.077(-0.145–0.000)</t>
+    <t>-0.047(-0.102–0.000)</t>
+  </si>
+  <si>
+    <t>-0.076(-0.180–0.000)</t>
+  </si>
+  <si>
+    <t>-0.080(-0.180–0.000)</t>
+  </si>
+  <si>
+    <t>-0.061(-0.145–0.000)</t>
   </si>
   <si>
     <t>TrustInMedicine</t>
   </si>
   <si>
-    <t>0.006(0.000–0.000)</t>
-  </si>
-  <si>
-    <t>0.719(0.701–0.821)</t>
-  </si>
-  <si>
-    <t>0.206(0.000–0.669)</t>
-  </si>
-  <si>
-    <t>0.462(0.000–0.778)</t>
+    <t>0.411(0.000–0.847)</t>
+  </si>
+  <si>
+    <t>0.671(0.000–0.910)</t>
+  </si>
+  <si>
+    <t>0.397(0.000–0.703)</t>
+  </si>
+  <si>
+    <t>0.459(0.000–0.766)</t>
   </si>
   <si>
     <t>TrustInScience</t>
   </si>
   <si>
-    <t>0.527(0.519–0.560)</t>
-  </si>
-  <si>
-    <t>0.000(0.000–0.000)</t>
-  </si>
-  <si>
-    <t>0.117(0.000–0.290)</t>
-  </si>
-  <si>
-    <t>0.199(0.000–0.516)</t>
+    <t>0.165(0.000–0.560)</t>
+  </si>
+  <si>
+    <t>0.037(0.000–0.411)</t>
+  </si>
+  <si>
+    <t>0.038(0.000–0.290)</t>
+  </si>
+  <si>
+    <t>0.160(0.000–0.525)</t>
   </si>
   <si>
     <t>UninsuredUnder19</t>
   </si>
   <si>
-    <t>-0.000(0.000–0.000)</t>
-  </si>
-  <si>
-    <t>-0.267(-0.275–-0.159)</t>
-  </si>
-  <si>
-    <t>-0.252(-0.297–-0.163)</t>
-  </si>
-  <si>
-    <t>-0.048(-0.162–0.000)</t>
-  </si>
-  <si>
-    <t>Vaccine</t>
-  </si>
-  <si>
-    <t>MMR</t>
-  </si>
-  <si>
-    <t>DTaP</t>
-  </si>
-  <si>
-    <t>IPV</t>
-  </si>
-  <si>
-    <t>VAR</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>2017–18</t>
-  </si>
-  <si>
-    <t>2018–19</t>
-  </si>
-  <si>
-    <t>2019–20</t>
-  </si>
-  <si>
-    <t>2020–21</t>
-  </si>
-  <si>
-    <t>2021–22</t>
-  </si>
-  <si>
-    <t>2022–23</t>
-  </si>
-  <si>
-    <t>2017–18</t>
-  </si>
-  <si>
-    <t>2018–19</t>
-  </si>
-  <si>
-    <t>2019–20</t>
-  </si>
-  <si>
-    <t>2020–21</t>
-  </si>
-  <si>
-    <t>2021–22</t>
-  </si>
-  <si>
-    <t>2022–23</t>
-  </si>
-  <si>
-    <t>2017–18</t>
-  </si>
-  <si>
-    <t>2018–19</t>
-  </si>
-  <si>
-    <t>2019–20</t>
-  </si>
-  <si>
-    <t>2020–21</t>
-  </si>
-  <si>
-    <t>2021–22</t>
-  </si>
-  <si>
-    <t>2022–23</t>
-  </si>
-  <si>
-    <t>2017–18</t>
-  </si>
-  <si>
-    <t>2018–19</t>
-  </si>
-  <si>
-    <t>2019–20</t>
-  </si>
-  <si>
-    <t>2020–21</t>
-  </si>
-  <si>
-    <t>2021–22</t>
-  </si>
-  <si>
-    <t>2022–23</t>
-  </si>
-  <si>
-    <t>Mean_Error</t>
-  </si>
-  <si>
-    <t>4.85%</t>
-  </si>
-  <si>
-    <t>4.77%</t>
-  </si>
-  <si>
-    <t>3.20%</t>
-  </si>
-  <si>
-    <t>3.79%</t>
-  </si>
-  <si>
-    <t>3.46%</t>
-  </si>
-  <si>
-    <t>3.78%</t>
-  </si>
-  <si>
-    <t>4.70%</t>
-  </si>
-  <si>
-    <t>4.59%</t>
-  </si>
-  <si>
-    <t>3.09%</t>
-  </si>
-  <si>
-    <t>3.85%</t>
-  </si>
-  <si>
-    <t>3.53%</t>
-  </si>
-  <si>
-    <t>3.73%</t>
-  </si>
-  <si>
-    <t>4.47%</t>
-  </si>
-  <si>
-    <t>4.49%</t>
-  </si>
-  <si>
-    <t>3.06%</t>
-  </si>
-  <si>
-    <t>3.66%</t>
-  </si>
-  <si>
-    <t>3.40%</t>
-  </si>
-  <si>
-    <t>3.65%</t>
-  </si>
-  <si>
-    <t>5.07%</t>
-  </si>
-  <si>
-    <t>4.86%</t>
-  </si>
-  <si>
-    <t>3.13%</t>
-  </si>
-  <si>
-    <t>3.89%</t>
-  </si>
-  <si>
-    <t>3.47%</t>
-  </si>
-  <si>
-    <t>3.56%</t>
-  </si>
-  <si>
-    <t>Median_Error</t>
-  </si>
-  <si>
-    <t>3.33%</t>
-  </si>
-  <si>
-    <t>2.87%</t>
-  </si>
-  <si>
-    <t>2.33%</t>
-  </si>
-  <si>
-    <t>2.51%</t>
-  </si>
-  <si>
-    <t>2.35%</t>
-  </si>
-  <si>
-    <t>2.50%</t>
-  </si>
-  <si>
-    <t>3.07%</t>
-  </si>
-  <si>
-    <t>2.72%</t>
-  </si>
-  <si>
-    <t>2.22%</t>
-  </si>
-  <si>
-    <t>2.56%</t>
-  </si>
-  <si>
-    <t>2.42%</t>
-  </si>
-  <si>
-    <t>2.53%</t>
-  </si>
-  <si>
-    <t>3.00%</t>
-  </si>
-  <si>
-    <t>2.52%</t>
-  </si>
-  <si>
-    <t>2.17%</t>
-  </si>
-  <si>
-    <t>2.39%</t>
-  </si>
-  <si>
-    <t>2.25%</t>
-  </si>
-  <si>
-    <t>2.41%</t>
-  </si>
-  <si>
-    <t>3.42%</t>
-  </si>
-  <si>
-    <t>2.75%</t>
-  </si>
-  <si>
-    <t>2.26%</t>
-  </si>
-  <si>
-    <t>2.48%</t>
-  </si>
-  <si>
-    <t>2.25%</t>
-  </si>
-  <si>
-    <t>2.43%</t>
-  </si>
-  <si>
-    <t>Error_within_5</t>
-  </si>
-  <si>
-    <t>0.721</t>
-  </si>
-  <si>
-    <t>0.748</t>
-  </si>
-  <si>
-    <t>0.863</t>
-  </si>
-  <si>
-    <t>0.804</t>
-  </si>
-  <si>
-    <t>0.816</t>
-  </si>
-  <si>
-    <t>0.795</t>
-  </si>
-  <si>
-    <t>0.753</t>
-  </si>
-  <si>
-    <t>0.761</t>
-  </si>
-  <si>
-    <t>0.867</t>
-  </si>
-  <si>
-    <t>0.806</t>
-  </si>
-  <si>
-    <t>0.804</t>
-  </si>
-  <si>
-    <t>0.774</t>
-  </si>
-  <si>
-    <t>0.748</t>
-  </si>
-  <si>
-    <t>0.761</t>
-  </si>
-  <si>
-    <t>0.857</t>
-  </si>
-  <si>
-    <t>0.817</t>
-  </si>
-  <si>
-    <t>0.798</t>
-  </si>
-  <si>
-    <t>0.763</t>
-  </si>
-  <si>
-    <t>0.709</t>
-  </si>
-  <si>
-    <t>0.750</t>
-  </si>
-  <si>
-    <t>0.864</t>
-  </si>
-  <si>
-    <t>0.804</t>
-  </si>
-  <si>
-    <t>0.809</t>
-  </si>
-  <si>
-    <t>0.802</t>
-  </si>
-  <si>
-    <t>Measure</t>
-  </si>
-  <si>
-    <t>Trust</t>
-  </si>
-  <si>
-    <t>Proportion of states trust declined</t>
-  </si>
-  <si>
-    <t>Extent of decline in trust</t>
-  </si>
-  <si>
-    <t>Probability of initial decent</t>
-  </si>
-  <si>
-    <t>Trust</t>
-  </si>
-  <si>
-    <t>Trust_in_Science</t>
-  </si>
-  <si>
-    <t>Trust_in_Medicine</t>
-  </si>
-  <si>
-    <t>Trust_in_Science</t>
-  </si>
-  <si>
-    <t>Trust_in_Medicine</t>
-  </si>
-  <si>
-    <t>Trust_in_Science</t>
-  </si>
-  <si>
-    <t>Trust_in_Medicine</t>
-  </si>
-  <si>
-    <t>Trust_in_Science</t>
-  </si>
-  <si>
-    <t>Trust_in_Medicine</t>
-  </si>
-  <si>
-    <t>2017–18</t>
-  </si>
-  <si>
-    <t>68.7% (57.0%–75.7%) (n = 49)</t>
-  </si>
-  <si>
-    <t>62.4% (52.6%–71.7%) (n = 49)</t>
-  </si>
-  <si>
-    <t>———</t>
-  </si>
-  <si>
-    <t>0.002 (0.000–0.008)</t>
-  </si>
-  <si>
-    <t>0.009 (0.002–0.018)</t>
-  </si>
-  <si>
-    <t>2018–19</t>
-  </si>
-  <si>
-    <t>69.2% (56.4%–75.7%) (n = 49)</t>
-  </si>
-  <si>
-    <t>62.9% (52.2%–72.9%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.416 (0.286–0.551) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.414 (0.286–0.551) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.4% (-4.7%–3.9%) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.5% (-5.5%–4.2%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.024 (0.012–0.038)</t>
-  </si>
-  <si>
-    <t>0.061 (0.040–0.082)</t>
-  </si>
-  <si>
-    <t>2019–20</t>
-  </si>
-  <si>
-    <t>69.7% (57.3%–75.6%) (n = 49)</t>
-  </si>
-  <si>
-    <t>63.4% (53.1%–72.6%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.389 (0.265–0.531) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.422 (0.286–0.551) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.5% (-4.7%–3.3%) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.5% (-5.7%–4.7%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.048 (0.030–0.067)</t>
-  </si>
-  <si>
-    <t>0.077 (0.055–0.101)</t>
-  </si>
-  <si>
-    <t>2020–21</t>
-  </si>
-  <si>
-    <t>70.0% (59.3%–76.0%) (n = 49)</t>
-  </si>
-  <si>
-    <t>63.7% (53.7%–72.6%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.431 (0.286–0.571) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.446 (0.306–0.592) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.3% (-3.7%–3.0%) (n = 49)</t>
-  </si>
-  <si>
-    <t>-0.3% (-5.1%–4.5%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.168 (0.136–0.202)</t>
-  </si>
-  <si>
-    <t>0.189 (0.155–0.223)</t>
-  </si>
-  <si>
-    <t>2021–22</t>
-  </si>
-  <si>
-    <t>69.6% (59.7%–76.0%) (n = 49)</t>
-  </si>
-  <si>
-    <t>63.4% (54.0%–71.8%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.616 (0.490–0.755) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.563 (0.429–0.694) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.4% (-2.5%–3.3%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.3% (-3.8%–4.8%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.758 (0.719–0.795)</t>
-  </si>
-  <si>
-    <t>0.664 (0.623–0.705)</t>
-  </si>
-  <si>
-    <t>2022–23</t>
-  </si>
-  <si>
-    <t>63.3% (53.9%–75.5%) (n = 49)</t>
-  </si>
-  <si>
-    <t>57.5% (48.6%–64.7%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.997 (0.980–1.000) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.994 (0.959–1.000) (n = 49)</t>
-  </si>
-  <si>
-    <t>6.4% (2.0%–9.9%) (n = 49)</t>
-  </si>
-  <si>
-    <t>5.8% (1.6%–10.3%) (n = 49)</t>
-  </si>
-  <si>
-    <t>0.000 (0.000–0.000)</t>
-  </si>
-  <si>
-    <t>0.000 (0.000–0.001)</t>
+    <t>-0.019(-0.199–0.000)</t>
+  </si>
+  <si>
+    <t>-0.198(-0.317–0.000)</t>
+  </si>
+  <si>
+    <t>-0.177(-0.297–0.000)</t>
+  </si>
+  <si>
+    <t>-0.059(-0.171–0.000)</t>
   </si>
 </sst>
 </file>
@@ -1403,7 +1214,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1411,15 +1222,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1766,15 +1575,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="true"/>
-    <col min="2" max="2" width="14.5703125" customWidth="true"/>
-    <col min="3" max="5" width="25" customWidth="true"/>
-    <col min="6" max="6" width="24.5703125" customWidth="true"/>
-    <col min="7" max="7" width="25" customWidth="true"/>
-    <col min="8" max="8" width="24.5703125" customWidth="true"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1800,7 +1609,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1823,7 +1632,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1846,7 +1655,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1869,7 +1678,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1892,7 +1701,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1915,7 +1724,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1938,7 +1747,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1961,7 +1770,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1984,7 +1793,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -2007,7 +1816,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -2030,7 +1839,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2053,7 +1862,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2076,7 +1885,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -2099,7 +1908,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -2122,7 +1931,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -2145,7 +1954,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -2168,7 +1977,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -2191,7 +2000,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -2214,7 +2023,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2237,7 +2046,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2260,7 +2069,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2283,7 +2092,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2306,7 +2115,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2329,7 +2138,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2366,248 +2175,243 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="true"/>
-    <col min="2" max="2" width="17.5703125" customWidth="true"/>
-    <col min="3" max="3" width="26.28515625" customWidth="true"/>
-    <col min="4" max="4" width="26.28515625" customWidth="true"/>
-    <col min="5" max="5" width="26.28515625" customWidth="true"/>
-    <col min="6" max="6" width="26.28515625" customWidth="true"/>
-    <col min="7" max="7" width="26.28515625" customWidth="true"/>
-    <col min="8" max="8" width="26.28515625" customWidth="true"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="8" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>398</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>404</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>413</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="2" x14ac:dyDescent="0.25">
-      <c r="A2" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>405</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>414</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>423</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>432</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="3" x14ac:dyDescent="0.25">
-      <c r="A3" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>415</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>433</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="4" x14ac:dyDescent="0.25">
-      <c r="A4" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>392</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>407</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>416</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>425</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>434</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="5" x14ac:dyDescent="0.25">
-      <c r="A5" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>393</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>408</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>417</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>426</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>435</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="6" x14ac:dyDescent="0.25">
-      <c r="A6" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>409</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>427</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>436</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="7" x14ac:dyDescent="0.25">
-      <c r="A7" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>419</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>428</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>437</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="8" x14ac:dyDescent="0.25">
-      <c r="A8" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>402</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>411</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>438</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="9" x14ac:dyDescent="0.25">
-      <c r="A9" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>412</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>421</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>448</v>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G2" t="s">
+        <v>309</v>
+      </c>
+      <c r="H2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F3" t="s">
+        <v>301</v>
+      </c>
+      <c r="G3" t="s">
+        <v>310</v>
+      </c>
+      <c r="H3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F4" t="s">
+        <v>302</v>
+      </c>
+      <c r="G4" t="s">
+        <v>311</v>
+      </c>
+      <c r="H4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G5" t="s">
+        <v>312</v>
+      </c>
+      <c r="H5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D6" t="s">
+        <v>286</v>
+      </c>
+      <c r="E6" t="s">
+        <v>295</v>
+      </c>
+      <c r="F6" t="s">
+        <v>304</v>
+      </c>
+      <c r="G6" t="s">
+        <v>313</v>
+      </c>
+      <c r="H6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D7" t="s">
+        <v>287</v>
+      </c>
+      <c r="E7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E8" t="s">
+        <v>297</v>
+      </c>
+      <c r="F8" t="s">
+        <v>306</v>
+      </c>
+      <c r="G8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B9" t="s">
+        <v>274</v>
+      </c>
+      <c r="C9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E9" t="s">
+        <v>298</v>
+      </c>
+      <c r="F9" t="s">
+        <v>307</v>
+      </c>
+      <c r="G9" t="s">
+        <v>316</v>
+      </c>
+      <c r="H9" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -2619,212 +2423,211 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="true"/>
-    <col min="2" max="2" width="19.42578125" customWidth="true"/>
-    <col min="3" max="3" width="23.42578125" customWidth="true"/>
-    <col min="4" max="4" width="17.28515625" customWidth="true"/>
-    <col min="5" max="5" width="18.7109375" customWidth="true"/>
-    <col min="6" max="6" width="19.42578125" customWidth="true"/>
-    <col min="7" max="8" width="18.7109375" customWidth="true"/>
-    <col min="9" max="9" width="19.42578125" customWidth="true"/>
-    <col min="10" max="11" width="17.28515625" customWidth="true"/>
-    <col min="12" max="12" width="19.42578125" customWidth="true"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="11" width="17.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>219</v>
+        <v>326</v>
       </c>
       <c r="B1" t="s">
-        <v>224</v>
+        <v>331</v>
       </c>
       <c r="C1" t="s">
-        <v>229</v>
+        <v>336</v>
       </c>
       <c r="D1" t="s">
-        <v>234</v>
+        <v>341</v>
       </c>
       <c r="E1" t="s">
-        <v>239</v>
+        <v>346</v>
       </c>
       <c r="F1" t="s">
-        <v>244</v>
+        <v>351</v>
       </c>
       <c r="G1" t="s">
-        <v>249</v>
+        <v>356</v>
       </c>
       <c r="H1" t="s">
-        <v>254</v>
+        <v>361</v>
       </c>
       <c r="I1" t="s">
-        <v>259</v>
+        <v>366</v>
       </c>
       <c r="J1" t="s">
-        <v>264</v>
+        <v>371</v>
       </c>
       <c r="K1" t="s">
-        <v>269</v>
+        <v>376</v>
       </c>
       <c r="L1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="2" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>327</v>
       </c>
       <c r="B2" t="s">
-        <v>225</v>
+        <v>332</v>
       </c>
       <c r="C2" t="s">
-        <v>230</v>
+        <v>337</v>
       </c>
       <c r="D2" t="s">
-        <v>235</v>
+        <v>342</v>
       </c>
       <c r="E2" t="s">
-        <v>240</v>
+        <v>347</v>
       </c>
       <c r="F2" t="s">
-        <v>245</v>
+        <v>352</v>
       </c>
       <c r="G2" t="s">
-        <v>250</v>
+        <v>357</v>
       </c>
       <c r="H2" t="s">
-        <v>255</v>
+        <v>362</v>
       </c>
       <c r="I2" t="s">
-        <v>260</v>
+        <v>367</v>
       </c>
       <c r="J2" t="s">
-        <v>265</v>
+        <v>372</v>
       </c>
       <c r="K2" t="s">
-        <v>270</v>
+        <v>377</v>
       </c>
       <c r="L2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="3" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>221</v>
+        <v>328</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>333</v>
       </c>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>338</v>
       </c>
       <c r="D3" t="s">
-        <v>236</v>
+        <v>343</v>
       </c>
       <c r="E3" t="s">
-        <v>241</v>
+        <v>348</v>
       </c>
       <c r="F3" t="s">
-        <v>246</v>
+        <v>353</v>
       </c>
       <c r="G3" t="s">
-        <v>251</v>
+        <v>358</v>
       </c>
       <c r="H3" t="s">
-        <v>256</v>
+        <v>363</v>
       </c>
       <c r="I3" t="s">
-        <v>261</v>
+        <v>368</v>
       </c>
       <c r="J3" t="s">
-        <v>266</v>
+        <v>373</v>
       </c>
       <c r="K3" t="s">
-        <v>271</v>
+        <v>378</v>
       </c>
       <c r="L3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="4" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>222</v>
+        <v>329</v>
       </c>
       <c r="B4" t="s">
-        <v>227</v>
+        <v>334</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>339</v>
       </c>
       <c r="D4" t="s">
-        <v>237</v>
+        <v>344</v>
       </c>
       <c r="E4" t="s">
-        <v>242</v>
+        <v>349</v>
       </c>
       <c r="F4" t="s">
-        <v>247</v>
+        <v>354</v>
       </c>
       <c r="G4" t="s">
-        <v>252</v>
+        <v>359</v>
       </c>
       <c r="H4" t="s">
-        <v>257</v>
+        <v>364</v>
       </c>
       <c r="I4" t="s">
-        <v>262</v>
+        <v>369</v>
       </c>
       <c r="J4" t="s">
-        <v>267</v>
+        <v>374</v>
       </c>
       <c r="K4" t="s">
-        <v>272</v>
+        <v>379</v>
       </c>
       <c r="L4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="5" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>223</v>
+        <v>330</v>
       </c>
       <c r="B5" t="s">
-        <v>228</v>
+        <v>335</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
-        <v>238</v>
+        <v>345</v>
       </c>
       <c r="E5" t="s">
-        <v>243</v>
+        <v>350</v>
       </c>
       <c r="F5" t="s">
-        <v>248</v>
+        <v>355</v>
       </c>
       <c r="G5" t="s">
-        <v>253</v>
+        <v>360</v>
       </c>
       <c r="H5" t="s">
-        <v>258</v>
+        <v>365</v>
       </c>
       <c r="I5" t="s">
-        <v>263</v>
+        <v>370</v>
       </c>
       <c r="J5" t="s">
-        <v>268</v>
+        <v>375</v>
       </c>
       <c r="K5" t="s">
-        <v>273</v>
+        <v>380</v>
       </c>
       <c r="L5" t="s">
-        <v>278</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -2843,436 +2646,436 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="true"/>
-    <col min="2" max="2" width="8.140625" customWidth="true"/>
-    <col min="3" max="3" width="11.42578125" customWidth="true"/>
-    <col min="4" max="4" width="13.140625" customWidth="true"/>
-    <col min="5" max="5" width="14.140625" style="1" customWidth="true"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>279</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s">
-        <v>284</v>
+        <v>161</v>
       </c>
       <c r="C1" t="s">
-        <v>309</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
-        <v>334</v>
+        <v>211</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="2" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>285</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
-        <v>310</v>
+        <v>187</v>
       </c>
       <c r="D2" t="s">
-        <v>335</v>
+        <v>212</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="3" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>280</v>
+        <v>157</v>
       </c>
       <c r="B3" t="s">
-        <v>286</v>
+        <v>163</v>
       </c>
       <c r="C3" t="s">
-        <v>311</v>
+        <v>188</v>
       </c>
       <c r="D3" t="s">
-        <v>336</v>
+        <v>213</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="4" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>280</v>
+        <v>157</v>
       </c>
       <c r="B4" t="s">
-        <v>287</v>
+        <v>164</v>
       </c>
       <c r="C4" t="s">
-        <v>312</v>
+        <v>189</v>
       </c>
       <c r="D4" t="s">
-        <v>337</v>
+        <v>214</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="5" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>280</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>288</v>
+        <v>165</v>
       </c>
       <c r="C5" t="s">
-        <v>313</v>
+        <v>190</v>
       </c>
       <c r="D5" t="s">
-        <v>338</v>
+        <v>215</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="6" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>280</v>
+        <v>157</v>
       </c>
       <c r="B6" t="s">
-        <v>289</v>
+        <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>314</v>
+        <v>191</v>
       </c>
       <c r="D6" t="s">
-        <v>339</v>
+        <v>216</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="7" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>280</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s">
-        <v>290</v>
+        <v>167</v>
       </c>
       <c r="C7" t="s">
-        <v>315</v>
+        <v>192</v>
       </c>
       <c r="D7" t="s">
-        <v>340</v>
+        <v>217</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="8" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>281</v>
+        <v>158</v>
       </c>
       <c r="B8" t="s">
-        <v>291</v>
+        <v>168</v>
       </c>
       <c r="C8" t="s">
-        <v>316</v>
+        <v>193</v>
       </c>
       <c r="D8" t="s">
-        <v>341</v>
+        <v>218</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="9" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>281</v>
+        <v>158</v>
       </c>
       <c r="B9" t="s">
-        <v>292</v>
+        <v>169</v>
       </c>
       <c r="C9" t="s">
-        <v>317</v>
+        <v>194</v>
       </c>
       <c r="D9" t="s">
-        <v>342</v>
+        <v>219</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="10" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>281</v>
+        <v>158</v>
       </c>
       <c r="B10" t="s">
-        <v>293</v>
+        <v>170</v>
       </c>
       <c r="C10" t="s">
-        <v>318</v>
+        <v>195</v>
       </c>
       <c r="D10" t="s">
-        <v>343</v>
+        <v>220</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="11" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>281</v>
+        <v>158</v>
       </c>
       <c r="B11" t="s">
-        <v>294</v>
+        <v>171</v>
       </c>
       <c r="C11" t="s">
-        <v>319</v>
+        <v>196</v>
       </c>
       <c r="D11" t="s">
-        <v>344</v>
+        <v>221</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="12" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>281</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s">
-        <v>295</v>
+        <v>172</v>
       </c>
       <c r="C12" t="s">
-        <v>320</v>
+        <v>197</v>
       </c>
       <c r="D12" t="s">
-        <v>345</v>
+        <v>222</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="13" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>281</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s">
-        <v>296</v>
+        <v>173</v>
       </c>
       <c r="C13" t="s">
-        <v>321</v>
+        <v>198</v>
       </c>
       <c r="D13" t="s">
-        <v>346</v>
+        <v>223</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="14" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>282</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s">
-        <v>297</v>
+        <v>174</v>
       </c>
       <c r="C14" t="s">
-        <v>322</v>
+        <v>199</v>
       </c>
       <c r="D14" t="s">
-        <v>347</v>
+        <v>224</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="15" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>282</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s">
-        <v>298</v>
+        <v>175</v>
       </c>
       <c r="C15" t="s">
-        <v>323</v>
+        <v>200</v>
       </c>
       <c r="D15" t="s">
-        <v>348</v>
+        <v>225</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="16" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>282</v>
+        <v>159</v>
       </c>
       <c r="B16" t="s">
-        <v>299</v>
+        <v>176</v>
       </c>
       <c r="C16" t="s">
-        <v>324</v>
+        <v>201</v>
       </c>
       <c r="D16" t="s">
-        <v>349</v>
+        <v>226</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="17" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>282</v>
+        <v>159</v>
       </c>
       <c r="B17" t="s">
-        <v>300</v>
+        <v>177</v>
       </c>
       <c r="C17" t="s">
-        <v>325</v>
+        <v>202</v>
       </c>
       <c r="D17" t="s">
-        <v>350</v>
+        <v>227</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="18" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>282</v>
+        <v>159</v>
       </c>
       <c r="B18" t="s">
-        <v>301</v>
+        <v>178</v>
       </c>
       <c r="C18" t="s">
-        <v>326</v>
+        <v>203</v>
       </c>
       <c r="D18" t="s">
-        <v>351</v>
+        <v>228</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="19" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>282</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s">
-        <v>302</v>
+        <v>179</v>
       </c>
       <c r="C19" t="s">
-        <v>327</v>
+        <v>204</v>
       </c>
       <c r="D19" t="s">
-        <v>352</v>
+        <v>229</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="20" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>283</v>
+        <v>160</v>
       </c>
       <c r="B20" t="s">
-        <v>303</v>
+        <v>180</v>
       </c>
       <c r="C20" t="s">
-        <v>328</v>
+        <v>205</v>
       </c>
       <c r="D20" t="s">
-        <v>353</v>
+        <v>230</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="21" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>283</v>
+        <v>160</v>
       </c>
       <c r="B21" t="s">
-        <v>304</v>
+        <v>181</v>
       </c>
       <c r="C21" t="s">
-        <v>329</v>
+        <v>206</v>
       </c>
       <c r="D21" t="s">
-        <v>354</v>
+        <v>231</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="22" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>283</v>
+        <v>160</v>
       </c>
       <c r="B22" t="s">
-        <v>305</v>
+        <v>182</v>
       </c>
       <c r="C22" t="s">
-        <v>330</v>
+        <v>207</v>
       </c>
       <c r="D22" t="s">
-        <v>355</v>
+        <v>232</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="23" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>283</v>
+        <v>160</v>
       </c>
       <c r="B23" t="s">
-        <v>306</v>
+        <v>183</v>
       </c>
       <c r="C23" t="s">
-        <v>331</v>
+        <v>208</v>
       </c>
       <c r="D23" t="s">
-        <v>356</v>
+        <v>233</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="24" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>283</v>
+        <v>160</v>
       </c>
       <c r="B24" t="s">
-        <v>307</v>
+        <v>184</v>
       </c>
       <c r="C24" t="s">
-        <v>332</v>
+        <v>209</v>
       </c>
       <c r="D24" t="s">
-        <v>357</v>
+        <v>234</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="25" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>283</v>
+        <v>160</v>
       </c>
       <c r="B25" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="C25" t="s">
-        <v>333</v>
+        <v>210</v>
       </c>
       <c r="D25" t="s">
-        <v>358</v>
+        <v>235</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>383</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
